--- a/data/updated_erp_N170_HC_and_MDD.xlsx
+++ b/data/updated_erp_N170_HC_and_MDD.xlsx
@@ -5031,7 +5031,7 @@
     <col min="6" max="6" width="6.28515625" customWidth="true"/>
     <col min="7" max="7" width="14.140625" customWidth="true"/>
     <col min="8" max="8" width="4.28515625" customWidth="true"/>
-    <col min="9" max="9" width="12.42578125" customWidth="true"/>
+    <col min="9" max="9" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5089,7 +5089,7 @@
         <v>29</v>
       </c>
       <c r="I2" s="0">
-        <v>0.011137747999999999</v>
+        <v>0.0059667960740625902</v>
       </c>
     </row>
     <row r="3">
@@ -5118,7 +5118,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="0">
-        <v>0.011137747999999999</v>
+        <v>0.0059667960740625902</v>
       </c>
     </row>
     <row r="4">
@@ -5147,7 +5147,7 @@
         <v>29</v>
       </c>
       <c r="I4" s="0">
-        <v>0.011137747999999999</v>
+        <v>0.0059667960740625902</v>
       </c>
     </row>
     <row r="5">
@@ -5176,7 +5176,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="0">
-        <v>0.011137747999999999</v>
+        <v>0.0059667960740625902</v>
       </c>
     </row>
     <row r="6">
@@ -5205,7 +5205,7 @@
         <v>29</v>
       </c>
       <c r="I6" s="0">
-        <v>0.011137747999999999</v>
+        <v>0.0059667960740625902</v>
       </c>
     </row>
     <row r="7">
@@ -5234,7 +5234,7 @@
         <v>29</v>
       </c>
       <c r="I7" s="0">
-        <v>0.011137747999999999</v>
+        <v>0.0059667960740625902</v>
       </c>
     </row>
     <row r="8">
@@ -5263,7 +5263,7 @@
         <v>23</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0059690769999999997</v>
+        <v>-0.00110901542939246</v>
       </c>
     </row>
     <row r="9">
@@ -5292,7 +5292,7 @@
         <v>23</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0059690769999999997</v>
+        <v>-0.00110901542939246</v>
       </c>
     </row>
     <row r="10">
@@ -5321,7 +5321,7 @@
         <v>23</v>
       </c>
       <c r="I10" s="0">
-        <v>0.0059690769999999997</v>
+        <v>-0.00110901542939246</v>
       </c>
     </row>
     <row r="11">
@@ -5350,7 +5350,7 @@
         <v>23</v>
       </c>
       <c r="I11" s="0">
-        <v>0.0059690769999999997</v>
+        <v>-0.00110901542939246</v>
       </c>
     </row>
     <row r="12">
@@ -5379,7 +5379,7 @@
         <v>23</v>
       </c>
       <c r="I12" s="0">
-        <v>0.0059690769999999997</v>
+        <v>-0.00110901542939246</v>
       </c>
     </row>
     <row r="13">
@@ -5408,7 +5408,7 @@
         <v>23</v>
       </c>
       <c r="I13" s="0">
-        <v>0.0059690769999999997</v>
+        <v>-0.00110901542939246</v>
       </c>
     </row>
     <row r="14">
@@ -5437,7 +5437,7 @@
         <v>23</v>
       </c>
       <c r="I14" s="0">
-        <v>0.0099612620000000002</v>
+        <v>0.0019322773441672299</v>
       </c>
     </row>
     <row r="15">
@@ -5466,7 +5466,7 @@
         <v>23</v>
       </c>
       <c r="I15" s="0">
-        <v>0.0099612620000000002</v>
+        <v>0.0019322773441672299</v>
       </c>
     </row>
     <row r="16">
@@ -5495,7 +5495,7 @@
         <v>23</v>
       </c>
       <c r="I16" s="0">
-        <v>0.0099612620000000002</v>
+        <v>0.0019322773441672299</v>
       </c>
     </row>
     <row r="17">
@@ -5524,7 +5524,7 @@
         <v>23</v>
       </c>
       <c r="I17" s="0">
-        <v>0.0099612620000000002</v>
+        <v>0.0019322773441672299</v>
       </c>
     </row>
     <row r="18">
@@ -5553,7 +5553,7 @@
         <v>23</v>
       </c>
       <c r="I18" s="0">
-        <v>0.0099612620000000002</v>
+        <v>0.0019322773441672299</v>
       </c>
     </row>
     <row r="19">
@@ -5582,7 +5582,7 @@
         <v>23</v>
       </c>
       <c r="I19" s="0">
-        <v>0.0099612620000000002</v>
+        <v>0.0019322773441672299</v>
       </c>
     </row>
     <row r="20">
@@ -5611,7 +5611,7 @@
         <v>19</v>
       </c>
       <c r="I20" s="0">
-        <v>0.0070211029999999999</v>
+        <v>0.0024033184163272398</v>
       </c>
     </row>
     <row r="21">
@@ -5640,7 +5640,7 @@
         <v>19</v>
       </c>
       <c r="I21" s="0">
-        <v>0.0070211029999999999</v>
+        <v>0.0024033184163272398</v>
       </c>
     </row>
     <row r="22">
@@ -5669,7 +5669,7 @@
         <v>19</v>
       </c>
       <c r="I22" s="0">
-        <v>0.0070211029999999999</v>
+        <v>0.0024033184163272398</v>
       </c>
     </row>
     <row r="23">
@@ -5698,7 +5698,7 @@
         <v>19</v>
       </c>
       <c r="I23" s="0">
-        <v>0.0070211029999999999</v>
+        <v>0.0024033184163272398</v>
       </c>
     </row>
     <row r="24">
@@ -5727,7 +5727,7 @@
         <v>19</v>
       </c>
       <c r="I24" s="0">
-        <v>0.0070211029999999999</v>
+        <v>0.0024033184163272398</v>
       </c>
     </row>
     <row r="25">
@@ -5756,7 +5756,7 @@
         <v>19</v>
       </c>
       <c r="I25" s="0">
-        <v>0.0070211029999999999</v>
+        <v>0.0024033184163272398</v>
       </c>
     </row>
     <row r="26">
@@ -5785,7 +5785,7 @@
         <v>27</v>
       </c>
       <c r="I26" s="0">
-        <v>0.00028143299999999999</v>
+        <v>-0.00060979824047535701</v>
       </c>
     </row>
     <row r="27">
@@ -5814,7 +5814,7 @@
         <v>27</v>
       </c>
       <c r="I27" s="0">
-        <v>0.00028143299999999999</v>
+        <v>-0.00060979824047535701</v>
       </c>
     </row>
     <row r="28">
@@ -5843,7 +5843,7 @@
         <v>27</v>
       </c>
       <c r="I28" s="0">
-        <v>0.00028143299999999999</v>
+        <v>-0.00060979824047535701</v>
       </c>
     </row>
     <row r="29">
@@ -5872,7 +5872,7 @@
         <v>27</v>
       </c>
       <c r="I29" s="0">
-        <v>0.00028143299999999999</v>
+        <v>-0.00060979824047535701</v>
       </c>
     </row>
     <row r="30">
@@ -5901,7 +5901,7 @@
         <v>27</v>
       </c>
       <c r="I30" s="0">
-        <v>0.00028143299999999999</v>
+        <v>-0.00060979824047535701</v>
       </c>
     </row>
     <row r="31">
@@ -5930,7 +5930,7 @@
         <v>27</v>
       </c>
       <c r="I31" s="0">
-        <v>0.00028143299999999999</v>
+        <v>-0.00060979824047535701</v>
       </c>
     </row>
     <row r="32">
@@ -5959,7 +5959,7 @@
         <v>22</v>
       </c>
       <c r="I32" s="0">
-        <v>0.023880907</v>
+        <v>-0.0146734127774835</v>
       </c>
     </row>
     <row r="33">
@@ -5988,7 +5988,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="0">
-        <v>0.023880907</v>
+        <v>-0.0146734127774835</v>
       </c>
     </row>
     <row r="34">
@@ -6017,7 +6017,7 @@
         <v>22</v>
       </c>
       <c r="I34" s="0">
-        <v>0.023880907</v>
+        <v>-0.0146734127774835</v>
       </c>
     </row>
     <row r="35">
@@ -6046,7 +6046,7 @@
         <v>22</v>
       </c>
       <c r="I35" s="0">
-        <v>0.023880907</v>
+        <v>-0.0146734127774835</v>
       </c>
     </row>
     <row r="36">
@@ -6075,7 +6075,7 @@
         <v>22</v>
       </c>
       <c r="I36" s="0">
-        <v>0.023880907</v>
+        <v>-0.0146734127774835</v>
       </c>
     </row>
     <row r="37">
@@ -6104,7 +6104,7 @@
         <v>22</v>
       </c>
       <c r="I37" s="0">
-        <v>0.023880907</v>
+        <v>-0.0146734127774835</v>
       </c>
     </row>
     <row r="38">
@@ -6133,7 +6133,7 @@
         <v>18</v>
       </c>
       <c r="I38" s="0">
-        <v>0.0066348559999999997</v>
+        <v>0.00041404628427699197</v>
       </c>
     </row>
     <row r="39">
@@ -6162,7 +6162,7 @@
         <v>18</v>
       </c>
       <c r="I39" s="0">
-        <v>0.0066348559999999997</v>
+        <v>0.00041404628427699197</v>
       </c>
     </row>
     <row r="40">
@@ -6191,7 +6191,7 @@
         <v>18</v>
       </c>
       <c r="I40" s="0">
-        <v>0.0066348559999999997</v>
+        <v>0.00041404628427699197</v>
       </c>
     </row>
     <row r="41">
@@ -6220,7 +6220,7 @@
         <v>18</v>
       </c>
       <c r="I41" s="0">
-        <v>0.0066348559999999997</v>
+        <v>0.00041404628427699197</v>
       </c>
     </row>
     <row r="42">
@@ -6249,7 +6249,7 @@
         <v>18</v>
       </c>
       <c r="I42" s="0">
-        <v>0.0066348559999999997</v>
+        <v>0.00041404628427699197</v>
       </c>
     </row>
     <row r="43">
@@ -6278,7 +6278,7 @@
         <v>18</v>
       </c>
       <c r="I43" s="0">
-        <v>0.0066348559999999997</v>
+        <v>0.00041404628427699197</v>
       </c>
     </row>
     <row r="44">
@@ -6307,7 +6307,7 @@
         <v>36</v>
       </c>
       <c r="I44" s="0">
-        <v>0.0063658780000000002</v>
+        <v>0.0036745436955243301</v>
       </c>
     </row>
     <row r="45">
@@ -6336,7 +6336,7 @@
         <v>36</v>
       </c>
       <c r="I45" s="0">
-        <v>0.0063658780000000002</v>
+        <v>0.0036745436955243301</v>
       </c>
     </row>
     <row r="46">
@@ -6365,7 +6365,7 @@
         <v>36</v>
       </c>
       <c r="I46" s="0">
-        <v>0.0063658780000000002</v>
+        <v>0.0036745436955243301</v>
       </c>
     </row>
     <row r="47">
@@ -6394,7 +6394,7 @@
         <v>36</v>
       </c>
       <c r="I47" s="0">
-        <v>0.0063658780000000002</v>
+        <v>0.0036745436955243301</v>
       </c>
     </row>
     <row r="48">
@@ -6423,7 +6423,7 @@
         <v>36</v>
       </c>
       <c r="I48" s="0">
-        <v>0.0063658780000000002</v>
+        <v>0.0036745436955243301</v>
       </c>
     </row>
     <row r="49">
@@ -6452,7 +6452,7 @@
         <v>36</v>
       </c>
       <c r="I49" s="0">
-        <v>0.0063658780000000002</v>
+        <v>0.0036745436955243301</v>
       </c>
     </row>
     <row r="50">
@@ -6481,7 +6481,7 @@
         <v>26</v>
       </c>
       <c r="I50" s="0">
-        <v>-7.3504000000000006e-05</v>
+        <v>0.0014517928939312701</v>
       </c>
     </row>
     <row r="51">
@@ -6510,7 +6510,7 @@
         <v>26</v>
       </c>
       <c r="I51" s="0">
-        <v>-7.3504000000000006e-05</v>
+        <v>0.0014517928939312701</v>
       </c>
     </row>
     <row r="52">
@@ -6539,7 +6539,7 @@
         <v>26</v>
       </c>
       <c r="I52" s="0">
-        <v>-7.3504000000000006e-05</v>
+        <v>0.0014517928939312701</v>
       </c>
     </row>
     <row r="53">
@@ -6568,7 +6568,7 @@
         <v>26</v>
       </c>
       <c r="I53" s="0">
-        <v>-7.3504000000000006e-05</v>
+        <v>0.0014517928939312701</v>
       </c>
     </row>
     <row r="54">
@@ -6597,7 +6597,7 @@
         <v>26</v>
       </c>
       <c r="I54" s="0">
-        <v>-7.3504000000000006e-05</v>
+        <v>0.0014517928939312701</v>
       </c>
     </row>
     <row r="55">
@@ -6626,7 +6626,7 @@
         <v>26</v>
       </c>
       <c r="I55" s="0">
-        <v>-7.3504000000000006e-05</v>
+        <v>0.0014517928939312701</v>
       </c>
     </row>
     <row r="56">
@@ -6655,7 +6655,7 @@
         <v>28</v>
       </c>
       <c r="I56" s="0">
-        <v>-0.0029879720000000002</v>
+        <v>-0.0044959867373108899</v>
       </c>
     </row>
     <row r="57">
@@ -6684,7 +6684,7 @@
         <v>28</v>
       </c>
       <c r="I57" s="0">
-        <v>-0.0029879720000000002</v>
+        <v>-0.0044959867373108899</v>
       </c>
     </row>
     <row r="58">
@@ -6713,7 +6713,7 @@
         <v>28</v>
       </c>
       <c r="I58" s="0">
-        <v>-0.0029879720000000002</v>
+        <v>-0.0044959867373108899</v>
       </c>
     </row>
     <row r="59">
@@ -6742,7 +6742,7 @@
         <v>28</v>
       </c>
       <c r="I59" s="0">
-        <v>-0.0029879720000000002</v>
+        <v>-0.0044959867373108899</v>
       </c>
     </row>
     <row r="60">
@@ -6771,7 +6771,7 @@
         <v>28</v>
       </c>
       <c r="I60" s="0">
-        <v>-0.0029879720000000002</v>
+        <v>-0.0044959867373108899</v>
       </c>
     </row>
     <row r="61">
@@ -6800,7 +6800,7 @@
         <v>28</v>
       </c>
       <c r="I61" s="0">
-        <v>-0.0029879720000000002</v>
+        <v>-0.0044959867373108899</v>
       </c>
     </row>
     <row r="62">
@@ -6829,7 +6829,7 @@
         <v>26</v>
       </c>
       <c r="I62" s="0">
-        <v>0.00031492599999999999</v>
+        <v>0.0018836659146472801</v>
       </c>
     </row>
     <row r="63">
@@ -6858,7 +6858,7 @@
         <v>26</v>
       </c>
       <c r="I63" s="0">
-        <v>0.00031492599999999999</v>
+        <v>0.0018836659146472801</v>
       </c>
     </row>
     <row r="64">
@@ -6887,7 +6887,7 @@
         <v>26</v>
       </c>
       <c r="I64" s="0">
-        <v>0.00031492599999999999</v>
+        <v>0.0018836659146472801</v>
       </c>
     </row>
     <row r="65">
@@ -6916,7 +6916,7 @@
         <v>26</v>
       </c>
       <c r="I65" s="0">
-        <v>0.00031492599999999999</v>
+        <v>0.0018836659146472801</v>
       </c>
     </row>
     <row r="66">
@@ -6945,7 +6945,7 @@
         <v>26</v>
       </c>
       <c r="I66" s="0">
-        <v>0.00031492599999999999</v>
+        <v>0.0018836659146472801</v>
       </c>
     </row>
     <row r="67">
@@ -6974,7 +6974,7 @@
         <v>26</v>
       </c>
       <c r="I67" s="0">
-        <v>0.00031492599999999999</v>
+        <v>0.0018836659146472801</v>
       </c>
     </row>
     <row r="68">
@@ -7003,7 +7003,7 @@
         <v>22</v>
       </c>
       <c r="I68" s="0">
-        <v>0.014345103999999999</v>
+        <v>-0.00165716244373471</v>
       </c>
     </row>
     <row r="69">
@@ -7032,7 +7032,7 @@
         <v>22</v>
       </c>
       <c r="I69" s="0">
-        <v>0.014345103999999999</v>
+        <v>-0.00165716244373471</v>
       </c>
     </row>
     <row r="70">
@@ -7061,7 +7061,7 @@
         <v>22</v>
       </c>
       <c r="I70" s="0">
-        <v>0.014345103999999999</v>
+        <v>-0.00165716244373471</v>
       </c>
     </row>
     <row r="71">
@@ -7090,7 +7090,7 @@
         <v>22</v>
       </c>
       <c r="I71" s="0">
-        <v>0.014345103999999999</v>
+        <v>-0.00165716244373471</v>
       </c>
     </row>
     <row r="72">
@@ -7119,7 +7119,7 @@
         <v>22</v>
       </c>
       <c r="I72" s="0">
-        <v>0.014345103999999999</v>
+        <v>-0.00165716244373471</v>
       </c>
     </row>
     <row r="73">
@@ -7148,7 +7148,7 @@
         <v>22</v>
       </c>
       <c r="I73" s="0">
-        <v>0.014345103999999999</v>
+        <v>-0.00165716244373471</v>
       </c>
     </row>
     <row r="74">
@@ -7177,7 +7177,7 @@
         <v>22</v>
       </c>
       <c r="I74" s="0">
-        <v>0.0053391310000000004</v>
+        <v>0.0045742746442556399</v>
       </c>
     </row>
     <row r="75">
@@ -7206,7 +7206,7 @@
         <v>22</v>
       </c>
       <c r="I75" s="0">
-        <v>0.0053391310000000004</v>
+        <v>0.0045742746442556399</v>
       </c>
     </row>
     <row r="76">
@@ -7235,7 +7235,7 @@
         <v>22</v>
       </c>
       <c r="I76" s="0">
-        <v>0.0053391310000000004</v>
+        <v>0.0045742746442556399</v>
       </c>
     </row>
     <row r="77">
@@ -7264,7 +7264,7 @@
         <v>22</v>
       </c>
       <c r="I77" s="0">
-        <v>0.0053391310000000004</v>
+        <v>0.0045742746442556399</v>
       </c>
     </row>
     <row r="78">
@@ -7293,7 +7293,7 @@
         <v>22</v>
       </c>
       <c r="I78" s="0">
-        <v>0.0053391310000000004</v>
+        <v>0.0045742746442556399</v>
       </c>
     </row>
     <row r="79">
@@ -7322,7 +7322,7 @@
         <v>22</v>
       </c>
       <c r="I79" s="0">
-        <v>0.0053391310000000004</v>
+        <v>0.0045742746442556399</v>
       </c>
     </row>
     <row r="80">
@@ -7351,7 +7351,7 @@
         <v>32</v>
       </c>
       <c r="I80" s="0">
-        <v>0.0079303459999999996</v>
+        <v>0.0083514135330915503</v>
       </c>
     </row>
     <row r="81">
@@ -7380,7 +7380,7 @@
         <v>32</v>
       </c>
       <c r="I81" s="0">
-        <v>0.0079303459999999996</v>
+        <v>0.0083514135330915503</v>
       </c>
     </row>
     <row r="82">
@@ -7409,7 +7409,7 @@
         <v>32</v>
       </c>
       <c r="I82" s="0">
-        <v>0.0079303459999999996</v>
+        <v>0.0083514135330915503</v>
       </c>
     </row>
     <row r="83">
@@ -7438,7 +7438,7 @@
         <v>32</v>
       </c>
       <c r="I83" s="0">
-        <v>0.0079303459999999996</v>
+        <v>0.0083514135330915503</v>
       </c>
     </row>
     <row r="84">
@@ -7467,7 +7467,7 @@
         <v>32</v>
       </c>
       <c r="I84" s="0">
-        <v>0.0079303459999999996</v>
+        <v>0.0083514135330915503</v>
       </c>
     </row>
     <row r="85">
@@ -7496,7 +7496,7 @@
         <v>32</v>
       </c>
       <c r="I85" s="0">
-        <v>0.0079303459999999996</v>
+        <v>0.0083514135330915503</v>
       </c>
     </row>
     <row r="86">
@@ -7525,7 +7525,7 @@
         <v>23</v>
       </c>
       <c r="I86" s="0">
-        <v>0.001633631</v>
+        <v>-0.0075899851508438596</v>
       </c>
     </row>
     <row r="87">
@@ -7554,7 +7554,7 @@
         <v>23</v>
       </c>
       <c r="I87" s="0">
-        <v>0.001633631</v>
+        <v>-0.0075899851508438596</v>
       </c>
     </row>
     <row r="88">
@@ -7583,7 +7583,7 @@
         <v>23</v>
       </c>
       <c r="I88" s="0">
-        <v>0.001633631</v>
+        <v>-0.0075899851508438596</v>
       </c>
     </row>
     <row r="89">
@@ -7612,7 +7612,7 @@
         <v>23</v>
       </c>
       <c r="I89" s="0">
-        <v>0.001633631</v>
+        <v>-0.0075899851508438596</v>
       </c>
     </row>
     <row r="90">
@@ -7641,7 +7641,7 @@
         <v>23</v>
       </c>
       <c r="I90" s="0">
-        <v>0.001633631</v>
+        <v>-0.0075899851508438596</v>
       </c>
     </row>
     <row r="91">
@@ -7670,7 +7670,7 @@
         <v>23</v>
       </c>
       <c r="I91" s="0">
-        <v>0.001633631</v>
+        <v>-0.0075899851508438596</v>
       </c>
     </row>
     <row r="92">
@@ -7699,7 +7699,7 @@
         <v>25</v>
       </c>
       <c r="I92" s="0">
-        <v>0.0050845769999999998</v>
+        <v>0.00165412598289549</v>
       </c>
     </row>
     <row r="93">
@@ -7728,7 +7728,7 @@
         <v>25</v>
       </c>
       <c r="I93" s="0">
-        <v>0.0050845769999999998</v>
+        <v>0.00165412598289549</v>
       </c>
     </row>
     <row r="94">
@@ -7757,7 +7757,7 @@
         <v>25</v>
       </c>
       <c r="I94" s="0">
-        <v>0.0050845769999999998</v>
+        <v>0.00165412598289549</v>
       </c>
     </row>
     <row r="95">
@@ -7786,7 +7786,7 @@
         <v>25</v>
       </c>
       <c r="I95" s="0">
-        <v>0.0050845769999999998</v>
+        <v>0.00165412598289549</v>
       </c>
     </row>
     <row r="96">
@@ -7815,7 +7815,7 @@
         <v>25</v>
       </c>
       <c r="I96" s="0">
-        <v>0.0050845769999999998</v>
+        <v>0.00165412598289549</v>
       </c>
     </row>
     <row r="97">
@@ -7844,7 +7844,7 @@
         <v>25</v>
       </c>
       <c r="I97" s="0">
-        <v>0.0050845769999999998</v>
+        <v>0.00165412598289549</v>
       </c>
     </row>
     <row r="98">
@@ -7873,7 +7873,7 @@
         <v>23</v>
       </c>
       <c r="I98" s="0">
-        <v>0.0013526040000000001</v>
+        <v>-0.00092166336253285397</v>
       </c>
     </row>
     <row r="99">
@@ -7902,7 +7902,7 @@
         <v>23</v>
       </c>
       <c r="I99" s="0">
-        <v>0.0013526040000000001</v>
+        <v>-0.00092166336253285397</v>
       </c>
     </row>
     <row r="100">
@@ -7931,7 +7931,7 @@
         <v>23</v>
       </c>
       <c r="I100" s="0">
-        <v>0.0013526040000000001</v>
+        <v>-0.00092166336253285397</v>
       </c>
     </row>
     <row r="101">
@@ -7960,7 +7960,7 @@
         <v>23</v>
       </c>
       <c r="I101" s="0">
-        <v>0.0013526040000000001</v>
+        <v>-0.00092166336253285397</v>
       </c>
     </row>
     <row r="102">
@@ -7989,7 +7989,7 @@
         <v>23</v>
       </c>
       <c r="I102" s="0">
-        <v>0.0013526040000000001</v>
+        <v>-0.00092166336253285397</v>
       </c>
     </row>
     <row r="103">
@@ -8018,7 +8018,7 @@
         <v>23</v>
       </c>
       <c r="I103" s="0">
-        <v>0.0013526040000000001</v>
+        <v>-0.00092166336253285397</v>
       </c>
     </row>
     <row r="104">
@@ -8047,7 +8047,7 @@
         <v>32</v>
       </c>
       <c r="I104" s="0">
-        <v>-0.0085184860000000005</v>
+        <v>-0.0058096363209188002</v>
       </c>
     </row>
     <row r="105">
@@ -8076,7 +8076,7 @@
         <v>32</v>
       </c>
       <c r="I105" s="0">
-        <v>-0.0085184860000000005</v>
+        <v>-0.0058096363209188002</v>
       </c>
     </row>
     <row r="106">
@@ -8105,7 +8105,7 @@
         <v>32</v>
       </c>
       <c r="I106" s="0">
-        <v>-0.0085184860000000005</v>
+        <v>-0.0058096363209188002</v>
       </c>
     </row>
     <row r="107">
@@ -8134,7 +8134,7 @@
         <v>32</v>
       </c>
       <c r="I107" s="0">
-        <v>-0.0085184860000000005</v>
+        <v>-0.0058096363209188002</v>
       </c>
     </row>
     <row r="108">
@@ -8163,7 +8163,7 @@
         <v>32</v>
       </c>
       <c r="I108" s="0">
-        <v>-0.0085184860000000005</v>
+        <v>-0.0058096363209188002</v>
       </c>
     </row>
     <row r="109">
@@ -8192,7 +8192,7 @@
         <v>32</v>
       </c>
       <c r="I109" s="0">
-        <v>-0.0085184860000000005</v>
+        <v>-0.0058096363209188002</v>
       </c>
     </row>
     <row r="110">
@@ -8221,7 +8221,7 @@
         <v>26</v>
       </c>
       <c r="I110" s="0">
-        <v>0.0076786509999999999</v>
+        <v>-0.00014491591718979199</v>
       </c>
     </row>
     <row r="111">
@@ -8250,7 +8250,7 @@
         <v>26</v>
       </c>
       <c r="I111" s="0">
-        <v>0.0076786509999999999</v>
+        <v>-0.00014491591718979199</v>
       </c>
     </row>
     <row r="112">
@@ -8279,7 +8279,7 @@
         <v>26</v>
       </c>
       <c r="I112" s="0">
-        <v>0.0076786509999999999</v>
+        <v>-0.00014491591718979199</v>
       </c>
     </row>
     <row r="113">
@@ -8308,7 +8308,7 @@
         <v>26</v>
       </c>
       <c r="I113" s="0">
-        <v>0.0076786509999999999</v>
+        <v>-0.00014491591718979199</v>
       </c>
     </row>
     <row r="114">
@@ -8337,7 +8337,7 @@
         <v>26</v>
       </c>
       <c r="I114" s="0">
-        <v>0.0076786509999999999</v>
+        <v>-0.00014491591718979199</v>
       </c>
     </row>
     <row r="115">
@@ -8366,7 +8366,7 @@
         <v>26</v>
       </c>
       <c r="I115" s="0">
-        <v>0.0076786509999999999</v>
+        <v>-0.00014491591718979199</v>
       </c>
     </row>
     <row r="116">
@@ -8395,7 +8395,7 @@
         <v>22</v>
       </c>
       <c r="I116" s="0">
-        <v>0.0030514729999999999</v>
+        <v>0.00346358772367239</v>
       </c>
     </row>
     <row r="117">
@@ -8424,7 +8424,7 @@
         <v>22</v>
       </c>
       <c r="I117" s="0">
-        <v>0.0030514729999999999</v>
+        <v>0.00346358772367239</v>
       </c>
     </row>
     <row r="118">
@@ -8453,7 +8453,7 @@
         <v>22</v>
       </c>
       <c r="I118" s="0">
-        <v>0.0030514729999999999</v>
+        <v>0.00346358772367239</v>
       </c>
     </row>
     <row r="119">
@@ -8482,7 +8482,7 @@
         <v>22</v>
       </c>
       <c r="I119" s="0">
-        <v>0.0030514729999999999</v>
+        <v>0.00346358772367239</v>
       </c>
     </row>
     <row r="120">
@@ -8511,7 +8511,7 @@
         <v>22</v>
       </c>
       <c r="I120" s="0">
-        <v>0.0030514729999999999</v>
+        <v>0.00346358772367239</v>
       </c>
     </row>
     <row r="121">
@@ -8540,7 +8540,7 @@
         <v>22</v>
       </c>
       <c r="I121" s="0">
-        <v>0.0030514729999999999</v>
+        <v>0.00346358772367239</v>
       </c>
     </row>
     <row r="122">
@@ -8569,7 +8569,7 @@
         <v>21</v>
       </c>
       <c r="I122" s="0">
-        <v>0.00061782700000000005</v>
+        <v>0.0012210460845381</v>
       </c>
     </row>
     <row r="123">
@@ -8598,7 +8598,7 @@
         <v>21</v>
       </c>
       <c r="I123" s="0">
-        <v>0.00061782700000000005</v>
+        <v>0.0012210460845381</v>
       </c>
     </row>
     <row r="124">
@@ -8627,7 +8627,7 @@
         <v>21</v>
       </c>
       <c r="I124" s="0">
-        <v>0.00061782700000000005</v>
+        <v>0.0012210460845381</v>
       </c>
     </row>
     <row r="125">
@@ -8656,7 +8656,7 @@
         <v>21</v>
       </c>
       <c r="I125" s="0">
-        <v>0.00061782700000000005</v>
+        <v>0.0012210460845381</v>
       </c>
     </row>
     <row r="126">
@@ -8685,7 +8685,7 @@
         <v>21</v>
       </c>
       <c r="I126" s="0">
-        <v>0.00061782700000000005</v>
+        <v>0.0012210460845381</v>
       </c>
     </row>
     <row r="127">
@@ -8714,7 +8714,7 @@
         <v>21</v>
       </c>
       <c r="I127" s="0">
-        <v>0.00061782700000000005</v>
+        <v>0.0012210460845381</v>
       </c>
     </row>
     <row r="128">
@@ -8743,7 +8743,7 @@
         <v>25</v>
       </c>
       <c r="I128" s="0">
-        <v>-0.0040302080000000004</v>
+        <v>-0.0070405541919171801</v>
       </c>
     </row>
     <row r="129">
@@ -8772,7 +8772,7 @@
         <v>25</v>
       </c>
       <c r="I129" s="0">
-        <v>-0.0040302080000000004</v>
+        <v>-0.0070405541919171801</v>
       </c>
     </row>
     <row r="130">
@@ -8801,7 +8801,7 @@
         <v>25</v>
       </c>
       <c r="I130" s="0">
-        <v>-0.0040302080000000004</v>
+        <v>-0.0070405541919171801</v>
       </c>
     </row>
     <row r="131">
@@ -8830,7 +8830,7 @@
         <v>25</v>
       </c>
       <c r="I131" s="0">
-        <v>-0.0040302080000000004</v>
+        <v>-0.0070405541919171801</v>
       </c>
     </row>
     <row r="132">
@@ -8859,7 +8859,7 @@
         <v>25</v>
       </c>
       <c r="I132" s="0">
-        <v>-0.0040302080000000004</v>
+        <v>-0.0070405541919171801</v>
       </c>
     </row>
     <row r="133">
@@ -8888,7 +8888,7 @@
         <v>25</v>
       </c>
       <c r="I133" s="0">
-        <v>-0.0040302080000000004</v>
+        <v>-0.0070405541919171801</v>
       </c>
     </row>
     <row r="134">
@@ -8917,7 +8917,7 @@
         <v>33</v>
       </c>
       <c r="I134" s="0">
-        <v>0.0040772710000000004</v>
+        <v>-0.00054409139556810303</v>
       </c>
     </row>
     <row r="135">
@@ -8946,7 +8946,7 @@
         <v>33</v>
       </c>
       <c r="I135" s="0">
-        <v>0.0040772710000000004</v>
+        <v>-0.00054409139556810303</v>
       </c>
     </row>
     <row r="136">
@@ -8975,7 +8975,7 @@
         <v>33</v>
       </c>
       <c r="I136" s="0">
-        <v>0.0040772710000000004</v>
+        <v>-0.00054409139556810303</v>
       </c>
     </row>
     <row r="137">
@@ -9004,7 +9004,7 @@
         <v>33</v>
       </c>
       <c r="I137" s="0">
-        <v>0.0040772710000000004</v>
+        <v>-0.00054409139556810303</v>
       </c>
     </row>
     <row r="138">
@@ -9033,7 +9033,7 @@
         <v>33</v>
       </c>
       <c r="I138" s="0">
-        <v>0.0040772710000000004</v>
+        <v>-0.00054409139556810303</v>
       </c>
     </row>
     <row r="139">
@@ -9062,7 +9062,7 @@
         <v>33</v>
       </c>
       <c r="I139" s="0">
-        <v>0.0040772710000000004</v>
+        <v>-0.00054409139556810303</v>
       </c>
     </row>
     <row r="140">
@@ -9091,7 +9091,7 @@
         <v>25</v>
       </c>
       <c r="I140" s="0">
-        <v>0.013876938</v>
+        <v>-0.00063245859928429105</v>
       </c>
     </row>
     <row r="141">
@@ -9120,7 +9120,7 @@
         <v>25</v>
       </c>
       <c r="I141" s="0">
-        <v>0.013876938</v>
+        <v>-0.00063245859928429105</v>
       </c>
     </row>
     <row r="142">
@@ -9149,7 +9149,7 @@
         <v>25</v>
       </c>
       <c r="I142" s="0">
-        <v>0.013876938</v>
+        <v>-0.00063245859928429105</v>
       </c>
     </row>
     <row r="143">
@@ -9178,7 +9178,7 @@
         <v>25</v>
       </c>
       <c r="I143" s="0">
-        <v>0.013876938</v>
+        <v>-0.00063245859928429105</v>
       </c>
     </row>
     <row r="144">
@@ -9207,7 +9207,7 @@
         <v>25</v>
       </c>
       <c r="I144" s="0">
-        <v>0.013876938</v>
+        <v>-0.00063245859928429105</v>
       </c>
     </row>
     <row r="145">
@@ -9236,7 +9236,7 @@
         <v>25</v>
       </c>
       <c r="I145" s="0">
-        <v>0.013876938</v>
+        <v>-0.00063245859928429105</v>
       </c>
     </row>
     <row r="146">
@@ -9265,7 +9265,7 @@
         <v>30</v>
       </c>
       <c r="I146" s="0">
-        <v>0.00102571</v>
+        <v>-0.000497919972985983</v>
       </c>
     </row>
     <row r="147">
@@ -9294,7 +9294,7 @@
         <v>30</v>
       </c>
       <c r="I147" s="0">
-        <v>0.00102571</v>
+        <v>-0.000497919972985983</v>
       </c>
     </row>
     <row r="148">
@@ -9323,7 +9323,7 @@
         <v>30</v>
       </c>
       <c r="I148" s="0">
-        <v>0.00102571</v>
+        <v>-0.000497919972985983</v>
       </c>
     </row>
     <row r="149">
@@ -9352,7 +9352,7 @@
         <v>30</v>
       </c>
       <c r="I149" s="0">
-        <v>0.00102571</v>
+        <v>-0.000497919972985983</v>
       </c>
     </row>
     <row r="150">
@@ -9381,7 +9381,7 @@
         <v>30</v>
       </c>
       <c r="I150" s="0">
-        <v>0.00102571</v>
+        <v>-0.000497919972985983</v>
       </c>
     </row>
     <row r="151">
@@ -9410,7 +9410,7 @@
         <v>30</v>
       </c>
       <c r="I151" s="0">
-        <v>0.00102571</v>
+        <v>-0.000497919972985983</v>
       </c>
     </row>
     <row r="152">
@@ -9439,7 +9439,7 @@
         <v>18</v>
       </c>
       <c r="I152" s="0">
-        <v>0.0032711580000000001</v>
+        <v>0.0022719395346939598</v>
       </c>
     </row>
     <row r="153">
@@ -9468,7 +9468,7 @@
         <v>18</v>
       </c>
       <c r="I153" s="0">
-        <v>0.0032711580000000001</v>
+        <v>0.0022719395346939598</v>
       </c>
     </row>
     <row r="154">
@@ -9497,7 +9497,7 @@
         <v>18</v>
       </c>
       <c r="I154" s="0">
-        <v>0.0032711580000000001</v>
+        <v>0.0022719395346939598</v>
       </c>
     </row>
     <row r="155">
@@ -9526,7 +9526,7 @@
         <v>18</v>
       </c>
       <c r="I155" s="0">
-        <v>0.0032711580000000001</v>
+        <v>0.0022719395346939598</v>
       </c>
     </row>
     <row r="156">
@@ -9555,7 +9555,7 @@
         <v>18</v>
       </c>
       <c r="I156" s="0">
-        <v>0.0032711580000000001</v>
+        <v>0.0022719395346939598</v>
       </c>
     </row>
     <row r="157">
@@ -9584,7 +9584,7 @@
         <v>18</v>
       </c>
       <c r="I157" s="0">
-        <v>0.0032711580000000001</v>
+        <v>0.0022719395346939598</v>
       </c>
     </row>
     <row r="158">
@@ -9613,7 +9613,7 @@
         <v>30</v>
       </c>
       <c r="I158" s="0">
-        <v>-0.0011559059999999999</v>
+        <v>0.00050768774235621095</v>
       </c>
     </row>
     <row r="159">
@@ -9642,7 +9642,7 @@
         <v>30</v>
       </c>
       <c r="I159" s="0">
-        <v>-0.0011559059999999999</v>
+        <v>0.00050768774235621095</v>
       </c>
     </row>
     <row r="160">
@@ -9671,7 +9671,7 @@
         <v>30</v>
       </c>
       <c r="I160" s="0">
-        <v>-0.0011559059999999999</v>
+        <v>0.00050768774235621095</v>
       </c>
     </row>
     <row r="161">
@@ -9700,7 +9700,7 @@
         <v>30</v>
       </c>
       <c r="I161" s="0">
-        <v>-0.0011559059999999999</v>
+        <v>0.00050768774235621095</v>
       </c>
     </row>
     <row r="162">
@@ -9729,7 +9729,7 @@
         <v>30</v>
       </c>
       <c r="I162" s="0">
-        <v>-0.0011559059999999999</v>
+        <v>0.00050768774235621095</v>
       </c>
     </row>
     <row r="163">
@@ -9758,7 +9758,7 @@
         <v>30</v>
       </c>
       <c r="I163" s="0">
-        <v>-0.0011559059999999999</v>
+        <v>0.00050768774235621095</v>
       </c>
     </row>
     <row r="164">
@@ -9787,7 +9787,7 @@
         <v>38</v>
       </c>
       <c r="I164" s="0">
-        <v>0.0011888549999999999</v>
+        <v>-0.00073898659320548198</v>
       </c>
     </row>
     <row r="165">
@@ -9816,7 +9816,7 @@
         <v>38</v>
       </c>
       <c r="I165" s="0">
-        <v>0.0011888549999999999</v>
+        <v>-0.00073898659320548198</v>
       </c>
     </row>
     <row r="166">
@@ -9845,7 +9845,7 @@
         <v>38</v>
       </c>
       <c r="I166" s="0">
-        <v>0.0011888549999999999</v>
+        <v>-0.00073898659320548198</v>
       </c>
     </row>
     <row r="167">
@@ -9874,7 +9874,7 @@
         <v>38</v>
       </c>
       <c r="I167" s="0">
-        <v>0.0011888549999999999</v>
+        <v>-0.00073898659320548198</v>
       </c>
     </row>
     <row r="168">
@@ -9903,7 +9903,7 @@
         <v>38</v>
       </c>
       <c r="I168" s="0">
-        <v>0.0011888549999999999</v>
+        <v>-0.00073898659320548198</v>
       </c>
     </row>
     <row r="169">
@@ -9932,7 +9932,7 @@
         <v>38</v>
       </c>
       <c r="I169" s="0">
-        <v>0.0011888549999999999</v>
+        <v>-0.00073898659320548198</v>
       </c>
     </row>
     <row r="170">
@@ -9961,7 +9961,7 @@
         <v>21</v>
       </c>
       <c r="I170" s="0">
-        <v>0.0042510580000000003</v>
+        <v>0.0024657973553985401</v>
       </c>
     </row>
     <row r="171">
@@ -9990,7 +9990,7 @@
         <v>21</v>
       </c>
       <c r="I171" s="0">
-        <v>0.0042510580000000003</v>
+        <v>0.0024657973553985401</v>
       </c>
     </row>
     <row r="172">
@@ -10019,7 +10019,7 @@
         <v>21</v>
       </c>
       <c r="I172" s="0">
-        <v>0.0042510580000000003</v>
+        <v>0.0024657973553985401</v>
       </c>
     </row>
     <row r="173">
@@ -10048,7 +10048,7 @@
         <v>21</v>
       </c>
       <c r="I173" s="0">
-        <v>0.0042510580000000003</v>
+        <v>0.0024657973553985401</v>
       </c>
     </row>
     <row r="174">
@@ -10077,7 +10077,7 @@
         <v>21</v>
       </c>
       <c r="I174" s="0">
-        <v>0.0042510580000000003</v>
+        <v>0.0024657973553985401</v>
       </c>
     </row>
     <row r="175">
@@ -10106,7 +10106,7 @@
         <v>21</v>
       </c>
       <c r="I175" s="0">
-        <v>0.0042510580000000003</v>
+        <v>0.0024657973553985401</v>
       </c>
     </row>
     <row r="176">
@@ -10135,7 +10135,7 @@
         <v>27</v>
       </c>
       <c r="I176" s="0">
-        <v>0.002780972</v>
+        <v>-0.00380335957743227</v>
       </c>
     </row>
     <row r="177">
@@ -10164,7 +10164,7 @@
         <v>27</v>
       </c>
       <c r="I177" s="0">
-        <v>0.002780972</v>
+        <v>-0.00380335957743227</v>
       </c>
     </row>
     <row r="178">
@@ -10193,7 +10193,7 @@
         <v>27</v>
       </c>
       <c r="I178" s="0">
-        <v>0.002780972</v>
+        <v>-0.00380335957743227</v>
       </c>
     </row>
     <row r="179">
@@ -10222,7 +10222,7 @@
         <v>27</v>
       </c>
       <c r="I179" s="0">
-        <v>0.002780972</v>
+        <v>-0.00380335957743227</v>
       </c>
     </row>
     <row r="180">
@@ -10251,7 +10251,7 @@
         <v>27</v>
       </c>
       <c r="I180" s="0">
-        <v>0.002780972</v>
+        <v>-0.00380335957743227</v>
       </c>
     </row>
     <row r="181">
@@ -10280,7 +10280,7 @@
         <v>27</v>
       </c>
       <c r="I181" s="0">
-        <v>0.002780972</v>
+        <v>-0.00380335957743227</v>
       </c>
     </row>
     <row r="182">
@@ -10309,7 +10309,7 @@
         <v>23</v>
       </c>
       <c r="I182" s="0">
-        <v>0.012037871</v>
+        <v>-0.00072555581573396899</v>
       </c>
     </row>
     <row r="183">
@@ -10338,7 +10338,7 @@
         <v>23</v>
       </c>
       <c r="I183" s="0">
-        <v>0.012037871</v>
+        <v>-0.00072555581573396899</v>
       </c>
     </row>
     <row r="184">
@@ -10367,7 +10367,7 @@
         <v>23</v>
       </c>
       <c r="I184" s="0">
-        <v>0.012037871</v>
+        <v>-0.00072555581573396899</v>
       </c>
     </row>
     <row r="185">
@@ -10396,7 +10396,7 @@
         <v>23</v>
       </c>
       <c r="I185" s="0">
-        <v>0.012037871</v>
+        <v>-0.00072555581573396899</v>
       </c>
     </row>
     <row r="186">
@@ -10425,7 +10425,7 @@
         <v>23</v>
       </c>
       <c r="I186" s="0">
-        <v>0.012037871</v>
+        <v>-0.00072555581573396899</v>
       </c>
     </row>
     <row r="187">
@@ -10454,7 +10454,7 @@
         <v>23</v>
       </c>
       <c r="I187" s="0">
-        <v>0.012037871</v>
+        <v>-0.00072555581573396899</v>
       </c>
     </row>
     <row r="188">
@@ -10483,7 +10483,7 @@
         <v>27</v>
       </c>
       <c r="I188" s="0">
-        <v>-0.0035195000000000001</v>
+        <v>-0.0040977825410664099</v>
       </c>
     </row>
     <row r="189">
@@ -10512,7 +10512,7 @@
         <v>27</v>
       </c>
       <c r="I189" s="0">
-        <v>-0.0035195000000000001</v>
+        <v>-0.0040977825410664099</v>
       </c>
     </row>
     <row r="190">
@@ -10541,7 +10541,7 @@
         <v>27</v>
       </c>
       <c r="I190" s="0">
-        <v>-0.0035195000000000001</v>
+        <v>-0.0040977825410664099</v>
       </c>
     </row>
     <row r="191">
@@ -10570,7 +10570,7 @@
         <v>27</v>
       </c>
       <c r="I191" s="0">
-        <v>-0.0035195000000000001</v>
+        <v>-0.0040977825410664099</v>
       </c>
     </row>
     <row r="192">
@@ -10599,7 +10599,7 @@
         <v>27</v>
       </c>
       <c r="I192" s="0">
-        <v>-0.0035195000000000001</v>
+        <v>-0.0040977825410664099</v>
       </c>
     </row>
     <row r="193">
@@ -10628,7 +10628,7 @@
         <v>27</v>
       </c>
       <c r="I193" s="0">
-        <v>-0.0035195000000000001</v>
+        <v>-0.0040977825410664099</v>
       </c>
     </row>
     <row r="194">
@@ -10657,7 +10657,7 @@
         <v>44</v>
       </c>
       <c r="I194" s="0">
-        <v>0.014675830000000001</v>
+        <v>0.0019566623959690302</v>
       </c>
     </row>
     <row r="195">
@@ -10686,7 +10686,7 @@
         <v>44</v>
       </c>
       <c r="I195" s="0">
-        <v>0.014675830000000001</v>
+        <v>0.0019566623959690302</v>
       </c>
     </row>
     <row r="196">
@@ -10715,7 +10715,7 @@
         <v>44</v>
       </c>
       <c r="I196" s="0">
-        <v>0.014675830000000001</v>
+        <v>0.0019566623959690302</v>
       </c>
     </row>
     <row r="197">
@@ -10744,7 +10744,7 @@
         <v>44</v>
       </c>
       <c r="I197" s="0">
-        <v>0.014675830000000001</v>
+        <v>0.0019566623959690302</v>
       </c>
     </row>
     <row r="198">
@@ -10773,7 +10773,7 @@
         <v>44</v>
       </c>
       <c r="I198" s="0">
-        <v>0.014675830000000001</v>
+        <v>0.0019566623959690302</v>
       </c>
     </row>
     <row r="199">
@@ -10802,7 +10802,7 @@
         <v>44</v>
       </c>
       <c r="I199" s="0">
-        <v>0.014675830000000001</v>
+        <v>0.0019566623959690302</v>
       </c>
     </row>
     <row r="200">
@@ -10831,7 +10831,7 @@
         <v>36</v>
       </c>
       <c r="I200" s="0">
-        <v>0.0043556310000000004</v>
+        <v>-0.0149921905249357</v>
       </c>
     </row>
     <row r="201">
@@ -10860,7 +10860,7 @@
         <v>36</v>
       </c>
       <c r="I201" s="0">
-        <v>0.0043556310000000004</v>
+        <v>-0.0149921905249357</v>
       </c>
     </row>
     <row r="202">
@@ -10889,7 +10889,7 @@
         <v>36</v>
       </c>
       <c r="I202" s="0">
-        <v>0.0043556310000000004</v>
+        <v>-0.0149921905249357</v>
       </c>
     </row>
     <row r="203">
@@ -10918,7 +10918,7 @@
         <v>36</v>
       </c>
       <c r="I203" s="0">
-        <v>0.0043556310000000004</v>
+        <v>-0.0149921905249357</v>
       </c>
     </row>
     <row r="204">
@@ -10947,7 +10947,7 @@
         <v>36</v>
       </c>
       <c r="I204" s="0">
-        <v>0.0043556310000000004</v>
+        <v>-0.0149921905249357</v>
       </c>
     </row>
     <row r="205">
@@ -10976,7 +10976,7 @@
         <v>36</v>
       </c>
       <c r="I205" s="0">
-        <v>0.0043556310000000004</v>
+        <v>-0.0149921905249357</v>
       </c>
     </row>
     <row r="206">
@@ -11005,7 +11005,7 @@
         <v>22</v>
       </c>
       <c r="I206" s="0">
-        <v>-0.018728412</v>
+        <v>-0.0083090169355273195</v>
       </c>
     </row>
     <row r="207">
@@ -11034,7 +11034,7 @@
         <v>22</v>
       </c>
       <c r="I207" s="0">
-        <v>-0.018728412</v>
+        <v>-0.0083090169355273195</v>
       </c>
     </row>
     <row r="208">
@@ -11063,7 +11063,7 @@
         <v>22</v>
       </c>
       <c r="I208" s="0">
-        <v>-0.018728412</v>
+        <v>-0.0083090169355273195</v>
       </c>
     </row>
     <row r="209">
@@ -11092,7 +11092,7 @@
         <v>22</v>
       </c>
       <c r="I209" s="0">
-        <v>-0.018728412</v>
+        <v>-0.0083090169355273195</v>
       </c>
     </row>
     <row r="210">
@@ -11121,7 +11121,7 @@
         <v>22</v>
       </c>
       <c r="I210" s="0">
-        <v>-0.018728412</v>
+        <v>-0.0083090169355273195</v>
       </c>
     </row>
     <row r="211">
@@ -11150,7 +11150,7 @@
         <v>22</v>
       </c>
       <c r="I211" s="0">
-        <v>-0.018728412</v>
+        <v>-0.0083090169355273195</v>
       </c>
     </row>
     <row r="212">
@@ -11179,7 +11179,7 @@
         <v>30</v>
       </c>
       <c r="I212" s="0">
-        <v>0.0014600889999999999</v>
+        <v>0.0027262957300990798</v>
       </c>
     </row>
     <row r="213">
@@ -11208,7 +11208,7 @@
         <v>30</v>
       </c>
       <c r="I213" s="0">
-        <v>0.0014600889999999999</v>
+        <v>0.0027262957300990798</v>
       </c>
     </row>
     <row r="214">
@@ -11237,7 +11237,7 @@
         <v>30</v>
       </c>
       <c r="I214" s="0">
-        <v>0.0014600889999999999</v>
+        <v>0.0027262957300990798</v>
       </c>
     </row>
     <row r="215">
@@ -11266,7 +11266,7 @@
         <v>30</v>
       </c>
       <c r="I215" s="0">
-        <v>0.0014600889999999999</v>
+        <v>0.0027262957300990798</v>
       </c>
     </row>
     <row r="216">
@@ -11295,7 +11295,7 @@
         <v>30</v>
       </c>
       <c r="I216" s="0">
-        <v>0.0014600889999999999</v>
+        <v>0.0027262957300990798</v>
       </c>
     </row>
     <row r="217">
@@ -11324,7 +11324,7 @@
         <v>30</v>
       </c>
       <c r="I217" s="0">
-        <v>0.0014600889999999999</v>
+        <v>0.0027262957300990798</v>
       </c>
     </row>
     <row r="218">
@@ -11353,7 +11353,7 @@
         <v>21</v>
       </c>
       <c r="I218" s="0">
-        <v>0.010866537000000001</v>
+        <v>-0.0011577208060771201</v>
       </c>
     </row>
     <row r="219">
@@ -11382,7 +11382,7 @@
         <v>21</v>
       </c>
       <c r="I219" s="0">
-        <v>0.010866537000000001</v>
+        <v>-0.0011577208060771201</v>
       </c>
     </row>
     <row r="220">
@@ -11411,7 +11411,7 @@
         <v>21</v>
       </c>
       <c r="I220" s="0">
-        <v>0.010866537000000001</v>
+        <v>-0.0011577208060771201</v>
       </c>
     </row>
     <row r="221">
@@ -11440,7 +11440,7 @@
         <v>21</v>
       </c>
       <c r="I221" s="0">
-        <v>0.010866537000000001</v>
+        <v>-0.0011577208060771201</v>
       </c>
     </row>
     <row r="222">
@@ -11469,7 +11469,7 @@
         <v>21</v>
       </c>
       <c r="I222" s="0">
-        <v>0.010866537000000001</v>
+        <v>-0.0011577208060771201</v>
       </c>
     </row>
     <row r="223">
@@ -11498,7 +11498,7 @@
         <v>21</v>
       </c>
       <c r="I223" s="0">
-        <v>0.010866537000000001</v>
+        <v>-0.0011577208060771201</v>
       </c>
     </row>
     <row r="224">
@@ -11527,7 +11527,7 @@
         <v>28</v>
       </c>
       <c r="I224" s="0">
-        <v>-0.001584912</v>
+        <v>-0.0067872158251702803</v>
       </c>
     </row>
     <row r="225">
@@ -11556,7 +11556,7 @@
         <v>28</v>
       </c>
       <c r="I225" s="0">
-        <v>-0.001584912</v>
+        <v>-0.0067872158251702803</v>
       </c>
     </row>
     <row r="226">
@@ -11585,7 +11585,7 @@
         <v>28</v>
       </c>
       <c r="I226" s="0">
-        <v>-0.001584912</v>
+        <v>-0.0067872158251702803</v>
       </c>
     </row>
     <row r="227">
@@ -11614,7 +11614,7 @@
         <v>28</v>
       </c>
       <c r="I227" s="0">
-        <v>-0.001584912</v>
+        <v>-0.0067872158251702803</v>
       </c>
     </row>
     <row r="228">
@@ -11643,7 +11643,7 @@
         <v>28</v>
       </c>
       <c r="I228" s="0">
-        <v>-0.001584912</v>
+        <v>-0.0067872158251702803</v>
       </c>
     </row>
     <row r="229">
@@ -11672,7 +11672,7 @@
         <v>28</v>
       </c>
       <c r="I229" s="0">
-        <v>-0.001584912</v>
+        <v>-0.0067872158251702803</v>
       </c>
     </row>
     <row r="230">
@@ -11701,7 +11701,7 @@
         <v>27</v>
       </c>
       <c r="I230" s="0">
-        <v>0.0078649559999999993</v>
+        <v>-0.011579602956771899</v>
       </c>
     </row>
     <row r="231">
@@ -11730,7 +11730,7 @@
         <v>27</v>
       </c>
       <c r="I231" s="0">
-        <v>0.0078649559999999993</v>
+        <v>-0.011579602956771899</v>
       </c>
     </row>
     <row r="232">
@@ -11759,7 +11759,7 @@
         <v>27</v>
       </c>
       <c r="I232" s="0">
-        <v>0.0078649559999999993</v>
+        <v>-0.011579602956771899</v>
       </c>
     </row>
     <row r="233">
@@ -11788,7 +11788,7 @@
         <v>27</v>
       </c>
       <c r="I233" s="0">
-        <v>0.0078649559999999993</v>
+        <v>-0.011579602956771899</v>
       </c>
     </row>
     <row r="234">
@@ -11817,7 +11817,7 @@
         <v>27</v>
       </c>
       <c r="I234" s="0">
-        <v>0.0078649559999999993</v>
+        <v>-0.011579602956771899</v>
       </c>
     </row>
     <row r="235">
@@ -11846,7 +11846,7 @@
         <v>27</v>
       </c>
       <c r="I235" s="0">
-        <v>0.0078649559999999993</v>
+        <v>-0.011579602956771899</v>
       </c>
     </row>
     <row r="236">
@@ -11875,7 +11875,7 @@
         <v>33</v>
       </c>
       <c r="I236" s="0">
-        <v>-0.0021724090000000001</v>
+        <v>-0.0019886486697942001</v>
       </c>
     </row>
     <row r="237">
@@ -11904,7 +11904,7 @@
         <v>33</v>
       </c>
       <c r="I237" s="0">
-        <v>-0.0021724090000000001</v>
+        <v>-0.0019886486697942001</v>
       </c>
     </row>
     <row r="238">
@@ -11933,7 +11933,7 @@
         <v>33</v>
       </c>
       <c r="I238" s="0">
-        <v>-0.0021724090000000001</v>
+        <v>-0.0019886486697942001</v>
       </c>
     </row>
     <row r="239">
@@ -11962,7 +11962,7 @@
         <v>33</v>
       </c>
       <c r="I239" s="0">
-        <v>-0.0021724090000000001</v>
+        <v>-0.0019886486697942001</v>
       </c>
     </row>
     <row r="240">
@@ -11991,7 +11991,7 @@
         <v>33</v>
       </c>
       <c r="I240" s="0">
-        <v>-0.0021724090000000001</v>
+        <v>-0.0019886486697942001</v>
       </c>
     </row>
     <row r="241">
@@ -12020,7 +12020,7 @@
         <v>33</v>
       </c>
       <c r="I241" s="0">
-        <v>-0.0021724090000000001</v>
+        <v>-0.0019886486697942001</v>
       </c>
     </row>
     <row r="242">
@@ -12049,7 +12049,7 @@
         <v>36</v>
       </c>
       <c r="I242" s="0">
-        <v>-0.0066921799999999998</v>
+        <v>-0.0120844598859549</v>
       </c>
     </row>
     <row r="243">
@@ -12078,7 +12078,7 @@
         <v>36</v>
       </c>
       <c r="I243" s="0">
-        <v>-0.0066921799999999998</v>
+        <v>-0.0120844598859549</v>
       </c>
     </row>
     <row r="244">
@@ -12107,7 +12107,7 @@
         <v>36</v>
       </c>
       <c r="I244" s="0">
-        <v>-0.0066921799999999998</v>
+        <v>-0.0120844598859549</v>
       </c>
     </row>
     <row r="245">
@@ -12136,7 +12136,7 @@
         <v>36</v>
       </c>
       <c r="I245" s="0">
-        <v>-0.0066921799999999998</v>
+        <v>-0.0120844598859549</v>
       </c>
     </row>
     <row r="246">
@@ -12165,7 +12165,7 @@
         <v>36</v>
       </c>
       <c r="I246" s="0">
-        <v>-0.0066921799999999998</v>
+        <v>-0.0120844598859549</v>
       </c>
     </row>
     <row r="247">
@@ -12194,7 +12194,7 @@
         <v>36</v>
       </c>
       <c r="I247" s="0">
-        <v>-0.0066921799999999998</v>
+        <v>-0.0120844598859549</v>
       </c>
     </row>
     <row r="248">
@@ -12223,7 +12223,7 @@
         <v>23</v>
       </c>
       <c r="I248" s="0">
-        <v>-0.0029759309999999998</v>
+        <v>-0.0012685522669926301</v>
       </c>
     </row>
     <row r="249">
@@ -12252,7 +12252,7 @@
         <v>23</v>
       </c>
       <c r="I249" s="0">
-        <v>-0.0029759309999999998</v>
+        <v>-0.0012685522669926301</v>
       </c>
     </row>
     <row r="250">
@@ -12281,7 +12281,7 @@
         <v>23</v>
       </c>
       <c r="I250" s="0">
-        <v>-0.0029759309999999998</v>
+        <v>-0.0012685522669926301</v>
       </c>
     </row>
     <row r="251">
@@ -12310,7 +12310,7 @@
         <v>23</v>
       </c>
       <c r="I251" s="0">
-        <v>-0.0029759309999999998</v>
+        <v>-0.0012685522669926301</v>
       </c>
     </row>
     <row r="252">
@@ -12339,7 +12339,7 @@
         <v>23</v>
       </c>
       <c r="I252" s="0">
-        <v>-0.0029759309999999998</v>
+        <v>-0.0012685522669926301</v>
       </c>
     </row>
     <row r="253">
@@ -12368,7 +12368,7 @@
         <v>23</v>
       </c>
       <c r="I253" s="0">
-        <v>-0.0029759309999999998</v>
+        <v>-0.0012685522669926301</v>
       </c>
     </row>
     <row r="254">
@@ -12397,7 +12397,7 @@
         <v>24</v>
       </c>
       <c r="I254" s="0">
-        <v>0.0018713969999999999</v>
+        <v>-0.0072121811099350496</v>
       </c>
     </row>
     <row r="255">
@@ -12426,7 +12426,7 @@
         <v>24</v>
       </c>
       <c r="I255" s="0">
-        <v>0.0018713969999999999</v>
+        <v>-0.0072121811099350496</v>
       </c>
     </row>
     <row r="256">
@@ -12455,7 +12455,7 @@
         <v>24</v>
       </c>
       <c r="I256" s="0">
-        <v>0.0018713969999999999</v>
+        <v>-0.0072121811099350496</v>
       </c>
     </row>
     <row r="257">
@@ -12484,7 +12484,7 @@
         <v>24</v>
       </c>
       <c r="I257" s="0">
-        <v>0.0018713969999999999</v>
+        <v>-0.0072121811099350496</v>
       </c>
     </row>
     <row r="258">
@@ -12513,7 +12513,7 @@
         <v>24</v>
       </c>
       <c r="I258" s="0">
-        <v>0.0018713969999999999</v>
+        <v>-0.0072121811099350496</v>
       </c>
     </row>
     <row r="259">
@@ -12542,7 +12542,7 @@
         <v>24</v>
       </c>
       <c r="I259" s="0">
-        <v>0.0018713969999999999</v>
+        <v>-0.0072121811099350496</v>
       </c>
     </row>
     <row r="260">
@@ -12571,7 +12571,7 @@
         <v>25</v>
       </c>
       <c r="I260" s="0">
-        <v>-0.0021599829999999999</v>
+        <v>0.00284253316931427</v>
       </c>
     </row>
     <row r="261">
@@ -12600,7 +12600,7 @@
         <v>25</v>
       </c>
       <c r="I261" s="0">
-        <v>-0.0021599829999999999</v>
+        <v>0.00284253316931427</v>
       </c>
     </row>
     <row r="262">
@@ -12629,7 +12629,7 @@
         <v>25</v>
       </c>
       <c r="I262" s="0">
-        <v>-0.0021599829999999999</v>
+        <v>0.00284253316931427</v>
       </c>
     </row>
     <row r="263">
@@ -12658,7 +12658,7 @@
         <v>25</v>
       </c>
       <c r="I263" s="0">
-        <v>-0.0021599829999999999</v>
+        <v>0.00284253316931427</v>
       </c>
     </row>
     <row r="264">
@@ -12687,7 +12687,7 @@
         <v>25</v>
       </c>
       <c r="I264" s="0">
-        <v>-0.0021599829999999999</v>
+        <v>0.00284253316931427</v>
       </c>
     </row>
     <row r="265">
@@ -12716,7 +12716,7 @@
         <v>25</v>
       </c>
       <c r="I265" s="0">
-        <v>-0.0021599829999999999</v>
+        <v>0.00284253316931427</v>
       </c>
     </row>
     <row r="266">
@@ -12745,7 +12745,7 @@
         <v>25</v>
       </c>
       <c r="I266" s="0">
-        <v>-0.002786494</v>
+        <v>6.6995933593716499e-05</v>
       </c>
     </row>
     <row r="267">
@@ -12774,7 +12774,7 @@
         <v>25</v>
       </c>
       <c r="I267" s="0">
-        <v>-0.002786494</v>
+        <v>6.6995933593716499e-05</v>
       </c>
     </row>
     <row r="268">
@@ -12803,7 +12803,7 @@
         <v>25</v>
       </c>
       <c r="I268" s="0">
-        <v>-0.002786494</v>
+        <v>6.6995933593716499e-05</v>
       </c>
     </row>
     <row r="269">
@@ -12832,7 +12832,7 @@
         <v>25</v>
       </c>
       <c r="I269" s="0">
-        <v>-0.002786494</v>
+        <v>6.6995933593716499e-05</v>
       </c>
     </row>
     <row r="270">
@@ -12861,7 +12861,7 @@
         <v>25</v>
       </c>
       <c r="I270" s="0">
-        <v>-0.002786494</v>
+        <v>6.6995933593716499e-05</v>
       </c>
     </row>
     <row r="271">
@@ -12890,7 +12890,7 @@
         <v>25</v>
       </c>
       <c r="I271" s="0">
-        <v>-0.002786494</v>
+        <v>6.6995933593716499e-05</v>
       </c>
     </row>
     <row r="272">
@@ -12919,7 +12919,7 @@
         <v>24</v>
       </c>
       <c r="I272" s="0">
-        <v>-0.0080810680000000003</v>
+        <v>-0.0029659227002412098</v>
       </c>
     </row>
     <row r="273">
@@ -12948,7 +12948,7 @@
         <v>24</v>
       </c>
       <c r="I273" s="0">
-        <v>-0.0080810680000000003</v>
+        <v>-0.0029659227002412098</v>
       </c>
     </row>
     <row r="274">
@@ -12977,7 +12977,7 @@
         <v>24</v>
       </c>
       <c r="I274" s="0">
-        <v>-0.0080810680000000003</v>
+        <v>-0.0029659227002412098</v>
       </c>
     </row>
     <row r="275">
@@ -13006,7 +13006,7 @@
         <v>24</v>
       </c>
       <c r="I275" s="0">
-        <v>-0.0080810680000000003</v>
+        <v>-0.0029659227002412098</v>
       </c>
     </row>
     <row r="276">
@@ -13035,7 +13035,7 @@
         <v>24</v>
       </c>
       <c r="I276" s="0">
-        <v>-0.0080810680000000003</v>
+        <v>-0.0029659227002412098</v>
       </c>
     </row>
     <row r="277">
@@ -13064,7 +13064,7 @@
         <v>24</v>
       </c>
       <c r="I277" s="0">
-        <v>-0.0080810680000000003</v>
+        <v>-0.0029659227002412098</v>
       </c>
     </row>
     <row r="278">
@@ -13093,7 +13093,7 @@
         <v>22</v>
       </c>
       <c r="I278" s="0">
-        <v>0.0071363169999999997</v>
+        <v>-0.00023654566030017999</v>
       </c>
     </row>
     <row r="279">
@@ -13122,7 +13122,7 @@
         <v>22</v>
       </c>
       <c r="I279" s="0">
-        <v>0.0071363169999999997</v>
+        <v>-0.00023654566030017999</v>
       </c>
     </row>
     <row r="280">
@@ -13151,7 +13151,7 @@
         <v>22</v>
       </c>
       <c r="I280" s="0">
-        <v>0.0071363169999999997</v>
+        <v>-0.00023654566030017999</v>
       </c>
     </row>
     <row r="281">
@@ -13180,7 +13180,7 @@
         <v>22</v>
       </c>
       <c r="I281" s="0">
-        <v>0.0071363169999999997</v>
+        <v>-0.00023654566030017999</v>
       </c>
     </row>
     <row r="282">
@@ -13209,7 +13209,7 @@
         <v>22</v>
       </c>
       <c r="I282" s="0">
-        <v>0.0071363169999999997</v>
+        <v>-0.00023654566030017999</v>
       </c>
     </row>
     <row r="283">
@@ -13238,7 +13238,7 @@
         <v>22</v>
       </c>
       <c r="I283" s="0">
-        <v>0.0071363169999999997</v>
+        <v>-0.00023654566030017999</v>
       </c>
     </row>
     <row r="284">
@@ -13267,7 +13267,7 @@
         <v>26</v>
       </c>
       <c r="I284" s="0">
-        <v>0.0054819459999999997</v>
+        <v>0.00065703463042154897</v>
       </c>
     </row>
     <row r="285">
@@ -13296,7 +13296,7 @@
         <v>26</v>
       </c>
       <c r="I285" s="0">
-        <v>0.0054819459999999997</v>
+        <v>0.00065703463042154897</v>
       </c>
     </row>
     <row r="286">
@@ -13325,7 +13325,7 @@
         <v>26</v>
       </c>
       <c r="I286" s="0">
-        <v>0.0054819459999999997</v>
+        <v>0.00065703463042154897</v>
       </c>
     </row>
     <row r="287">
@@ -13354,7 +13354,7 @@
         <v>26</v>
       </c>
       <c r="I287" s="0">
-        <v>0.0054819459999999997</v>
+        <v>0.00065703463042154897</v>
       </c>
     </row>
     <row r="288">
@@ -13383,7 +13383,7 @@
         <v>26</v>
       </c>
       <c r="I288" s="0">
-        <v>0.0054819459999999997</v>
+        <v>0.00065703463042154897</v>
       </c>
     </row>
     <row r="289">
@@ -13412,7 +13412,7 @@
         <v>26</v>
       </c>
       <c r="I289" s="0">
-        <v>0.0054819459999999997</v>
+        <v>0.00065703463042154897</v>
       </c>
     </row>
     <row r="290">
@@ -13441,7 +13441,7 @@
         <v>18</v>
       </c>
       <c r="I290" s="0">
-        <v>0.012935298</v>
+        <v>0.0018645082600414801</v>
       </c>
     </row>
     <row r="291">
@@ -13470,7 +13470,7 @@
         <v>18</v>
       </c>
       <c r="I291" s="0">
-        <v>0.012935298</v>
+        <v>0.0018645082600414801</v>
       </c>
     </row>
     <row r="292">
@@ -13499,7 +13499,7 @@
         <v>18</v>
       </c>
       <c r="I292" s="0">
-        <v>0.012935298</v>
+        <v>0.0018645082600414801</v>
       </c>
     </row>
     <row r="293">
@@ -13528,7 +13528,7 @@
         <v>18</v>
       </c>
       <c r="I293" s="0">
-        <v>0.012935298</v>
+        <v>0.0018645082600414801</v>
       </c>
     </row>
     <row r="294">
@@ -13557,7 +13557,7 @@
         <v>18</v>
       </c>
       <c r="I294" s="0">
-        <v>0.012935298</v>
+        <v>0.0018645082600414801</v>
       </c>
     </row>
     <row r="295">
@@ -13586,7 +13586,7 @@
         <v>18</v>
       </c>
       <c r="I295" s="0">
-        <v>0.012935298</v>
+        <v>0.0018645082600414801</v>
       </c>
     </row>
     <row r="296">
@@ -13615,7 +13615,7 @@
         <v>24</v>
       </c>
       <c r="I296" s="0">
-        <v>0.0027538860000000001</v>
+        <v>0.0034150835126638399</v>
       </c>
     </row>
     <row r="297">
@@ -13644,7 +13644,7 @@
         <v>24</v>
       </c>
       <c r="I297" s="0">
-        <v>0.0027538860000000001</v>
+        <v>0.0034150835126638399</v>
       </c>
     </row>
     <row r="298">
@@ -13673,7 +13673,7 @@
         <v>24</v>
       </c>
       <c r="I298" s="0">
-        <v>0.0027538860000000001</v>
+        <v>0.0034150835126638399</v>
       </c>
     </row>
     <row r="299">
@@ -13702,7 +13702,7 @@
         <v>24</v>
       </c>
       <c r="I299" s="0">
-        <v>0.0027538860000000001</v>
+        <v>0.0034150835126638399</v>
       </c>
     </row>
     <row r="300">
@@ -13731,7 +13731,7 @@
         <v>24</v>
       </c>
       <c r="I300" s="0">
-        <v>0.0027538860000000001</v>
+        <v>0.0034150835126638399</v>
       </c>
     </row>
     <row r="301">
@@ -13760,7 +13760,7 @@
         <v>24</v>
       </c>
       <c r="I301" s="0">
-        <v>0.0027538860000000001</v>
+        <v>0.0034150835126638399</v>
       </c>
     </row>
     <row r="302">
@@ -13789,7 +13789,7 @@
         <v>35</v>
       </c>
       <c r="I302" s="0">
-        <v>-0.0013264629999999999</v>
+        <v>-0.00183889304753393</v>
       </c>
     </row>
     <row r="303">
@@ -13818,7 +13818,7 @@
         <v>35</v>
       </c>
       <c r="I303" s="0">
-        <v>-0.0013264629999999999</v>
+        <v>-0.00183889304753393</v>
       </c>
     </row>
     <row r="304">
@@ -13847,7 +13847,7 @@
         <v>35</v>
       </c>
       <c r="I304" s="0">
-        <v>-0.0013264629999999999</v>
+        <v>-0.00183889304753393</v>
       </c>
     </row>
     <row r="305">
@@ -13876,7 +13876,7 @@
         <v>35</v>
       </c>
       <c r="I305" s="0">
-        <v>-0.0013264629999999999</v>
+        <v>-0.00183889304753393</v>
       </c>
     </row>
     <row r="306">
@@ -13905,7 +13905,7 @@
         <v>35</v>
       </c>
       <c r="I306" s="0">
-        <v>-0.0013264629999999999</v>
+        <v>-0.00183889304753393</v>
       </c>
     </row>
     <row r="307">
@@ -13934,7 +13934,7 @@
         <v>35</v>
       </c>
       <c r="I307" s="0">
-        <v>-0.0013264629999999999</v>
+        <v>-0.00183889304753393</v>
       </c>
     </row>
     <row r="308">
@@ -13963,7 +13963,7 @@
         <v>19</v>
       </c>
       <c r="I308" s="0">
-        <v>0.0084611229999999992</v>
+        <v>0.0011864244006574199</v>
       </c>
     </row>
     <row r="309">
@@ -13992,7 +13992,7 @@
         <v>19</v>
       </c>
       <c r="I309" s="0">
-        <v>0.0084611229999999992</v>
+        <v>0.0011864244006574199</v>
       </c>
     </row>
     <row r="310">
@@ -14021,7 +14021,7 @@
         <v>19</v>
       </c>
       <c r="I310" s="0">
-        <v>0.0084611229999999992</v>
+        <v>0.0011864244006574199</v>
       </c>
     </row>
     <row r="311">
@@ -14050,7 +14050,7 @@
         <v>19</v>
       </c>
       <c r="I311" s="0">
-        <v>0.0084611229999999992</v>
+        <v>0.0011864244006574199</v>
       </c>
     </row>
     <row r="312">
@@ -14079,7 +14079,7 @@
         <v>19</v>
       </c>
       <c r="I312" s="0">
-        <v>0.0084611229999999992</v>
+        <v>0.0011864244006574199</v>
       </c>
     </row>
     <row r="313">
@@ -14108,7 +14108,7 @@
         <v>19</v>
       </c>
       <c r="I313" s="0">
-        <v>0.0084611229999999992</v>
+        <v>0.0011864244006574199</v>
       </c>
     </row>
     <row r="314">
@@ -14137,7 +14137,7 @@
         <v>26</v>
       </c>
       <c r="I314" s="0">
-        <v>0.005119261</v>
+        <v>0.0049850465729832597</v>
       </c>
     </row>
     <row r="315">
@@ -14166,7 +14166,7 @@
         <v>26</v>
       </c>
       <c r="I315" s="0">
-        <v>0.005119261</v>
+        <v>0.0049850465729832597</v>
       </c>
     </row>
     <row r="316">
@@ -14195,7 +14195,7 @@
         <v>26</v>
       </c>
       <c r="I316" s="0">
-        <v>0.005119261</v>
+        <v>0.0049850465729832597</v>
       </c>
     </row>
     <row r="317">
@@ -14224,7 +14224,7 @@
         <v>26</v>
       </c>
       <c r="I317" s="0">
-        <v>0.005119261</v>
+        <v>0.0049850465729832597</v>
       </c>
     </row>
     <row r="318">
@@ -14253,7 +14253,7 @@
         <v>26</v>
       </c>
       <c r="I318" s="0">
-        <v>0.005119261</v>
+        <v>0.0049850465729832597</v>
       </c>
     </row>
     <row r="319">
@@ -14282,7 +14282,7 @@
         <v>26</v>
       </c>
       <c r="I319" s="0">
-        <v>0.005119261</v>
+        <v>0.0049850465729832597</v>
       </c>
     </row>
     <row r="320">
@@ -14311,7 +14311,7 @@
         <v>18</v>
       </c>
       <c r="I320" s="0">
-        <v>-0.0015874929999999999</v>
+        <v>-0.0055672391317784804</v>
       </c>
     </row>
     <row r="321">
@@ -14340,7 +14340,7 @@
         <v>18</v>
       </c>
       <c r="I321" s="0">
-        <v>-0.0015874929999999999</v>
+        <v>-0.0055672391317784804</v>
       </c>
     </row>
     <row r="322">
@@ -14369,7 +14369,7 @@
         <v>18</v>
       </c>
       <c r="I322" s="0">
-        <v>-0.0015874929999999999</v>
+        <v>-0.0055672391317784804</v>
       </c>
     </row>
     <row r="323">
@@ -14398,7 +14398,7 @@
         <v>18</v>
       </c>
       <c r="I323" s="0">
-        <v>-0.0015874929999999999</v>
+        <v>-0.0055672391317784804</v>
       </c>
     </row>
     <row r="324">
@@ -14427,7 +14427,7 @@
         <v>18</v>
       </c>
       <c r="I324" s="0">
-        <v>-0.0015874929999999999</v>
+        <v>-0.0055672391317784804</v>
       </c>
     </row>
     <row r="325">
@@ -14456,7 +14456,7 @@
         <v>18</v>
       </c>
       <c r="I325" s="0">
-        <v>-0.0015874929999999999</v>
+        <v>-0.0055672391317784804</v>
       </c>
     </row>
     <row r="326">
@@ -14485,7 +14485,7 @@
         <v>22</v>
       </c>
       <c r="I326" s="0">
-        <v>0.0016307369999999999</v>
+        <v>-0.0044162254780530904</v>
       </c>
     </row>
     <row r="327">
@@ -14514,7 +14514,7 @@
         <v>22</v>
       </c>
       <c r="I327" s="0">
-        <v>0.0016307369999999999</v>
+        <v>-0.0044162254780530904</v>
       </c>
     </row>
     <row r="328">
@@ -14543,7 +14543,7 @@
         <v>22</v>
       </c>
       <c r="I328" s="0">
-        <v>0.0016307369999999999</v>
+        <v>-0.0044162254780530904</v>
       </c>
     </row>
     <row r="329">
@@ -14572,7 +14572,7 @@
         <v>22</v>
       </c>
       <c r="I329" s="0">
-        <v>0.0016307369999999999</v>
+        <v>-0.0044162254780530904</v>
       </c>
     </row>
     <row r="330">
@@ -14601,7 +14601,7 @@
         <v>22</v>
       </c>
       <c r="I330" s="0">
-        <v>0.0016307369999999999</v>
+        <v>-0.0044162254780530904</v>
       </c>
     </row>
     <row r="331">
@@ -14630,7 +14630,7 @@
         <v>22</v>
       </c>
       <c r="I331" s="0">
-        <v>0.0016307369999999999</v>
+        <v>-0.0044162254780530904</v>
       </c>
     </row>
     <row r="332">
@@ -14659,7 +14659,7 @@
         <v>41</v>
       </c>
       <c r="I332" s="0">
-        <v>0.001520544</v>
+        <v>0.0052224537357688002</v>
       </c>
     </row>
     <row r="333">
@@ -14688,7 +14688,7 @@
         <v>41</v>
       </c>
       <c r="I333" s="0">
-        <v>0.001520544</v>
+        <v>0.0052224537357688002</v>
       </c>
     </row>
     <row r="334">
@@ -14717,7 +14717,7 @@
         <v>41</v>
       </c>
       <c r="I334" s="0">
-        <v>0.001520544</v>
+        <v>0.0052224537357688002</v>
       </c>
     </row>
     <row r="335">
@@ -14746,7 +14746,7 @@
         <v>41</v>
       </c>
       <c r="I335" s="0">
-        <v>0.001520544</v>
+        <v>0.0052224537357688002</v>
       </c>
     </row>
     <row r="336">
@@ -14775,7 +14775,7 @@
         <v>41</v>
       </c>
       <c r="I336" s="0">
-        <v>0.001520544</v>
+        <v>0.0052224537357688002</v>
       </c>
     </row>
     <row r="337">
@@ -14804,7 +14804,7 @@
         <v>41</v>
       </c>
       <c r="I337" s="0">
-        <v>0.001520544</v>
+        <v>0.0052224537357688002</v>
       </c>
     </row>
     <row r="338">
@@ -14833,7 +14833,7 @@
         <v>39</v>
       </c>
       <c r="I338" s="0">
-        <v>-0.0029212510000000001</v>
+        <v>0.00049756962107494495</v>
       </c>
     </row>
     <row r="339">
@@ -14862,7 +14862,7 @@
         <v>39</v>
       </c>
       <c r="I339" s="0">
-        <v>-0.0029212510000000001</v>
+        <v>0.00049756962107494495</v>
       </c>
     </row>
     <row r="340">
@@ -14891,7 +14891,7 @@
         <v>39</v>
       </c>
       <c r="I340" s="0">
-        <v>-0.0029212510000000001</v>
+        <v>0.00049756962107494495</v>
       </c>
     </row>
     <row r="341">
@@ -14920,7 +14920,7 @@
         <v>39</v>
       </c>
       <c r="I341" s="0">
-        <v>-0.0029212510000000001</v>
+        <v>0.00049756962107494495</v>
       </c>
     </row>
     <row r="342">
@@ -14949,7 +14949,7 @@
         <v>39</v>
       </c>
       <c r="I342" s="0">
-        <v>-0.0029212510000000001</v>
+        <v>0.00049756962107494495</v>
       </c>
     </row>
     <row r="343">
@@ -14978,7 +14978,7 @@
         <v>39</v>
       </c>
       <c r="I343" s="0">
-        <v>-0.0029212510000000001</v>
+        <v>0.00049756962107494495</v>
       </c>
     </row>
     <row r="344">
@@ -15007,7 +15007,7 @@
         <v>22</v>
       </c>
       <c r="I344" s="0">
-        <v>0.0053966880000000002</v>
+        <v>-0.00068176403874531399</v>
       </c>
     </row>
     <row r="345">
@@ -15036,7 +15036,7 @@
         <v>22</v>
       </c>
       <c r="I345" s="0">
-        <v>0.0053966880000000002</v>
+        <v>-0.00068176403874531399</v>
       </c>
     </row>
     <row r="346">
@@ -15065,7 +15065,7 @@
         <v>22</v>
       </c>
       <c r="I346" s="0">
-        <v>0.0053966880000000002</v>
+        <v>-0.00068176403874531399</v>
       </c>
     </row>
     <row r="347">
@@ -15094,7 +15094,7 @@
         <v>22</v>
       </c>
       <c r="I347" s="0">
-        <v>0.0053966880000000002</v>
+        <v>-0.00068176403874531399</v>
       </c>
     </row>
     <row r="348">
@@ -15123,7 +15123,7 @@
         <v>22</v>
       </c>
       <c r="I348" s="0">
-        <v>0.0053966880000000002</v>
+        <v>-0.00068176403874531399</v>
       </c>
     </row>
     <row r="349">
@@ -15152,7 +15152,7 @@
         <v>22</v>
       </c>
       <c r="I349" s="0">
-        <v>0.0053966880000000002</v>
+        <v>-0.00068176403874531399</v>
       </c>
     </row>
     <row r="350">
@@ -15181,7 +15181,7 @@
         <v>23</v>
       </c>
       <c r="I350" s="0">
-        <v>0.001377645</v>
+        <v>-0.0052035204134881496</v>
       </c>
     </row>
     <row r="351">
@@ -15210,7 +15210,7 @@
         <v>23</v>
       </c>
       <c r="I351" s="0">
-        <v>0.001377645</v>
+        <v>-0.0052035204134881496</v>
       </c>
     </row>
     <row r="352">
@@ -15239,7 +15239,7 @@
         <v>23</v>
       </c>
       <c r="I352" s="0">
-        <v>0.001377645</v>
+        <v>-0.0052035204134881496</v>
       </c>
     </row>
     <row r="353">
@@ -15268,7 +15268,7 @@
         <v>23</v>
       </c>
       <c r="I353" s="0">
-        <v>0.001377645</v>
+        <v>-0.0052035204134881496</v>
       </c>
     </row>
     <row r="354">
@@ -15297,7 +15297,7 @@
         <v>23</v>
       </c>
       <c r="I354" s="0">
-        <v>0.001377645</v>
+        <v>-0.0052035204134881496</v>
       </c>
     </row>
     <row r="355">
@@ -15326,7 +15326,7 @@
         <v>23</v>
       </c>
       <c r="I355" s="0">
-        <v>0.001377645</v>
+        <v>-0.0052035204134881496</v>
       </c>
     </row>
     <row r="356">
@@ -15355,7 +15355,7 @@
         <v>22</v>
       </c>
       <c r="I356" s="0">
-        <v>0.0034405379999999999</v>
+        <v>0.0043106242083013101</v>
       </c>
     </row>
     <row r="357">
@@ -15384,7 +15384,7 @@
         <v>22</v>
       </c>
       <c r="I357" s="0">
-        <v>0.0034405379999999999</v>
+        <v>0.0043106242083013101</v>
       </c>
     </row>
     <row r="358">
@@ -15413,7 +15413,7 @@
         <v>22</v>
       </c>
       <c r="I358" s="0">
-        <v>0.0034405379999999999</v>
+        <v>0.0043106242083013101</v>
       </c>
     </row>
     <row r="359">
@@ -15442,7 +15442,7 @@
         <v>22</v>
       </c>
       <c r="I359" s="0">
-        <v>0.0034405379999999999</v>
+        <v>0.0043106242083013101</v>
       </c>
     </row>
     <row r="360">
@@ -15471,7 +15471,7 @@
         <v>22</v>
       </c>
       <c r="I360" s="0">
-        <v>0.0034405379999999999</v>
+        <v>0.0043106242083013101</v>
       </c>
     </row>
     <row r="361">
@@ -15500,7 +15500,7 @@
         <v>22</v>
       </c>
       <c r="I361" s="0">
-        <v>0.0034405379999999999</v>
+        <v>0.0043106242083013101</v>
       </c>
     </row>
     <row r="362">
@@ -15529,7 +15529,7 @@
         <v>21</v>
       </c>
       <c r="I362" s="0">
-        <v>-0.00030591400000000001</v>
+        <v>0.00132775213569403</v>
       </c>
     </row>
     <row r="363">
@@ -15558,7 +15558,7 @@
         <v>21</v>
       </c>
       <c r="I363" s="0">
-        <v>-0.00030591400000000001</v>
+        <v>0.00132775213569403</v>
       </c>
     </row>
     <row r="364">
@@ -15587,7 +15587,7 @@
         <v>21</v>
       </c>
       <c r="I364" s="0">
-        <v>-0.00030591400000000001</v>
+        <v>0.00132775213569403</v>
       </c>
     </row>
     <row r="365">
@@ -15616,7 +15616,7 @@
         <v>21</v>
       </c>
       <c r="I365" s="0">
-        <v>-0.00030591400000000001</v>
+        <v>0.00132775213569403</v>
       </c>
     </row>
     <row r="366">
@@ -15645,7 +15645,7 @@
         <v>21</v>
       </c>
       <c r="I366" s="0">
-        <v>-0.00030591400000000001</v>
+        <v>0.00132775213569403</v>
       </c>
     </row>
     <row r="367">
@@ -15674,7 +15674,7 @@
         <v>21</v>
       </c>
       <c r="I367" s="0">
-        <v>-0.00030591400000000001</v>
+        <v>0.00132775213569403</v>
       </c>
     </row>
     <row r="368">
@@ -15703,7 +15703,7 @@
         <v>32</v>
       </c>
       <c r="I368" s="0">
-        <v>0.016741915</v>
+        <v>-0.00574932154268026</v>
       </c>
     </row>
     <row r="369">
@@ -15732,7 +15732,7 @@
         <v>32</v>
       </c>
       <c r="I369" s="0">
-        <v>0.016741915</v>
+        <v>-0.00574932154268026</v>
       </c>
     </row>
     <row r="370">
@@ -15761,7 +15761,7 @@
         <v>32</v>
       </c>
       <c r="I370" s="0">
-        <v>0.016741915</v>
+        <v>-0.00574932154268026</v>
       </c>
     </row>
     <row r="371">
@@ -15790,7 +15790,7 @@
         <v>32</v>
       </c>
       <c r="I371" s="0">
-        <v>0.016741915</v>
+        <v>-0.00574932154268026</v>
       </c>
     </row>
     <row r="372">
@@ -15819,7 +15819,7 @@
         <v>32</v>
       </c>
       <c r="I372" s="0">
-        <v>0.016741915</v>
+        <v>-0.00574932154268026</v>
       </c>
     </row>
     <row r="373">
@@ -15848,7 +15848,7 @@
         <v>32</v>
       </c>
       <c r="I373" s="0">
-        <v>0.016741915</v>
+        <v>-0.00574932154268026</v>
       </c>
     </row>
     <row r="374">
@@ -15877,7 +15877,7 @@
         <v>27</v>
       </c>
       <c r="I374" s="0">
-        <v>0.0027416939999999998</v>
+        <v>-0.00214935699477792</v>
       </c>
     </row>
     <row r="375">
@@ -15906,7 +15906,7 @@
         <v>27</v>
       </c>
       <c r="I375" s="0">
-        <v>0.0027416939999999998</v>
+        <v>-0.00214935699477792</v>
       </c>
     </row>
     <row r="376">
@@ -15935,7 +15935,7 @@
         <v>27</v>
       </c>
       <c r="I376" s="0">
-        <v>0.0027416939999999998</v>
+        <v>-0.00214935699477792</v>
       </c>
     </row>
     <row r="377">
@@ -15964,7 +15964,7 @@
         <v>27</v>
       </c>
       <c r="I377" s="0">
-        <v>0.0027416939999999998</v>
+        <v>-0.00214935699477792</v>
       </c>
     </row>
     <row r="378">
@@ -15993,7 +15993,7 @@
         <v>27</v>
       </c>
       <c r="I378" s="0">
-        <v>0.0027416939999999998</v>
+        <v>-0.00214935699477792</v>
       </c>
     </row>
     <row r="379">
@@ -16022,7 +16022,7 @@
         <v>27</v>
       </c>
       <c r="I379" s="0">
-        <v>0.0027416939999999998</v>
+        <v>-0.00214935699477792</v>
       </c>
     </row>
     <row r="380">
@@ -16051,7 +16051,7 @@
         <v>24</v>
       </c>
       <c r="I380" s="0">
-        <v>0.011088130999999999</v>
+        <v>0.00604079896584153</v>
       </c>
     </row>
     <row r="381">
@@ -16080,7 +16080,7 @@
         <v>24</v>
       </c>
       <c r="I381" s="0">
-        <v>0.011088130999999999</v>
+        <v>0.00604079896584153</v>
       </c>
     </row>
     <row r="382">
@@ -16109,7 +16109,7 @@
         <v>24</v>
       </c>
       <c r="I382" s="0">
-        <v>0.011088130999999999</v>
+        <v>0.00604079896584153</v>
       </c>
     </row>
     <row r="383">
@@ -16138,7 +16138,7 @@
         <v>24</v>
       </c>
       <c r="I383" s="0">
-        <v>0.011088130999999999</v>
+        <v>0.00604079896584153</v>
       </c>
     </row>
     <row r="384">
@@ -16167,7 +16167,7 @@
         <v>24</v>
       </c>
       <c r="I384" s="0">
-        <v>0.011088130999999999</v>
+        <v>0.00604079896584153</v>
       </c>
     </row>
     <row r="385">
@@ -16196,7 +16196,7 @@
         <v>24</v>
       </c>
       <c r="I385" s="0">
-        <v>0.011088130999999999</v>
+        <v>0.00604079896584153</v>
       </c>
     </row>
     <row r="386">
@@ -16225,7 +16225,7 @@
         <v>20</v>
       </c>
       <c r="I386" s="0">
-        <v>0.0091935079999999995</v>
+        <v>-0.0010037515312433199</v>
       </c>
     </row>
     <row r="387">
@@ -16254,7 +16254,7 @@
         <v>20</v>
       </c>
       <c r="I387" s="0">
-        <v>0.0091935079999999995</v>
+        <v>-0.0010037515312433199</v>
       </c>
     </row>
     <row r="388">
@@ -16283,7 +16283,7 @@
         <v>20</v>
       </c>
       <c r="I388" s="0">
-        <v>0.0091935079999999995</v>
+        <v>-0.0010037515312433199</v>
       </c>
     </row>
     <row r="389">
@@ -16312,7 +16312,7 @@
         <v>20</v>
       </c>
       <c r="I389" s="0">
-        <v>0.0091935079999999995</v>
+        <v>-0.0010037515312433199</v>
       </c>
     </row>
     <row r="390">
@@ -16341,7 +16341,7 @@
         <v>20</v>
       </c>
       <c r="I390" s="0">
-        <v>0.0091935079999999995</v>
+        <v>-0.0010037515312433199</v>
       </c>
     </row>
     <row r="391">
@@ -16370,7 +16370,7 @@
         <v>20</v>
       </c>
       <c r="I391" s="0">
-        <v>0.0091935079999999995</v>
+        <v>-0.0010037515312433199</v>
       </c>
     </row>
     <row r="392">
@@ -16399,7 +16399,7 @@
         <v>21</v>
       </c>
       <c r="I392" s="0">
-        <v>0.0073125150000000003</v>
+        <v>0.00045992564992047798</v>
       </c>
     </row>
     <row r="393">
@@ -16428,7 +16428,7 @@
         <v>21</v>
       </c>
       <c r="I393" s="0">
-        <v>0.0073125150000000003</v>
+        <v>0.00045992564992047798</v>
       </c>
     </row>
     <row r="394">
@@ -16457,7 +16457,7 @@
         <v>21</v>
       </c>
       <c r="I394" s="0">
-        <v>0.0073125150000000003</v>
+        <v>0.00045992564992047798</v>
       </c>
     </row>
     <row r="395">
@@ -16486,7 +16486,7 @@
         <v>21</v>
       </c>
       <c r="I395" s="0">
-        <v>0.0073125150000000003</v>
+        <v>0.00045992564992047798</v>
       </c>
     </row>
     <row r="396">
@@ -16515,7 +16515,7 @@
         <v>21</v>
       </c>
       <c r="I396" s="0">
-        <v>0.0073125150000000003</v>
+        <v>0.00045992564992047798</v>
       </c>
     </row>
     <row r="397">
@@ -16544,7 +16544,7 @@
         <v>21</v>
       </c>
       <c r="I397" s="0">
-        <v>0.0073125150000000003</v>
+        <v>0.00045992564992047798</v>
       </c>
     </row>
     <row r="398">
@@ -16573,7 +16573,7 @@
         <v>22</v>
       </c>
       <c r="I398" s="0">
-        <v>0.001770504</v>
+        <v>0.000475574634037912</v>
       </c>
     </row>
     <row r="399">
@@ -16602,7 +16602,7 @@
         <v>22</v>
       </c>
       <c r="I399" s="0">
-        <v>0.001770504</v>
+        <v>0.000475574634037912</v>
       </c>
     </row>
     <row r="400">
@@ -16631,7 +16631,7 @@
         <v>22</v>
       </c>
       <c r="I400" s="0">
-        <v>0.001770504</v>
+        <v>0.000475574634037912</v>
       </c>
     </row>
     <row r="401">
@@ -16660,7 +16660,7 @@
         <v>22</v>
       </c>
       <c r="I401" s="0">
-        <v>0.001770504</v>
+        <v>0.000475574634037912</v>
       </c>
     </row>
     <row r="402">
@@ -16689,7 +16689,7 @@
         <v>22</v>
       </c>
       <c r="I402" s="0">
-        <v>0.001770504</v>
+        <v>0.000475574634037912</v>
       </c>
     </row>
     <row r="403">
@@ -16718,7 +16718,7 @@
         <v>22</v>
       </c>
       <c r="I403" s="0">
-        <v>0.001770504</v>
+        <v>0.000475574634037912</v>
       </c>
     </row>
     <row r="404">
@@ -16747,7 +16747,7 @@
         <v>27</v>
       </c>
       <c r="I404" s="0">
-        <v>-0.01082838</v>
+        <v>0.00088071124628186204</v>
       </c>
     </row>
     <row r="405">
@@ -16776,7 +16776,7 @@
         <v>27</v>
       </c>
       <c r="I405" s="0">
-        <v>-0.01082838</v>
+        <v>0.00088071124628186204</v>
       </c>
     </row>
     <row r="406">
@@ -16805,7 +16805,7 @@
         <v>27</v>
       </c>
       <c r="I406" s="0">
-        <v>-0.01082838</v>
+        <v>0.00088071124628186204</v>
       </c>
     </row>
     <row r="407">
@@ -16834,7 +16834,7 @@
         <v>27</v>
       </c>
       <c r="I407" s="0">
-        <v>-0.01082838</v>
+        <v>0.00088071124628186204</v>
       </c>
     </row>
     <row r="408">
@@ -16863,7 +16863,7 @@
         <v>27</v>
       </c>
       <c r="I408" s="0">
-        <v>-0.01082838</v>
+        <v>0.00088071124628186204</v>
       </c>
     </row>
     <row r="409">
@@ -16892,7 +16892,7 @@
         <v>27</v>
       </c>
       <c r="I409" s="0">
-        <v>-0.01082838</v>
+        <v>0.00088071124628186204</v>
       </c>
     </row>
     <row r="410">
@@ -16921,7 +16921,7 @@
         <v>52</v>
       </c>
       <c r="I410" s="0">
-        <v>0.0093112539999999997</v>
+        <v>-0.010898918844759501</v>
       </c>
     </row>
     <row r="411">
@@ -16950,7 +16950,7 @@
         <v>52</v>
       </c>
       <c r="I411" s="0">
-        <v>0.0093112539999999997</v>
+        <v>-0.010898918844759501</v>
       </c>
     </row>
     <row r="412">
@@ -16979,7 +16979,7 @@
         <v>52</v>
       </c>
       <c r="I412" s="0">
-        <v>0.0093112539999999997</v>
+        <v>-0.010898918844759501</v>
       </c>
     </row>
     <row r="413">
@@ -17008,7 +17008,7 @@
         <v>52</v>
       </c>
       <c r="I413" s="0">
-        <v>0.0093112539999999997</v>
+        <v>-0.010898918844759501</v>
       </c>
     </row>
     <row r="414">
@@ -17037,7 +17037,7 @@
         <v>52</v>
       </c>
       <c r="I414" s="0">
-        <v>0.0093112539999999997</v>
+        <v>-0.010898918844759501</v>
       </c>
     </row>
     <row r="415">
@@ -17066,7 +17066,7 @@
         <v>52</v>
       </c>
       <c r="I415" s="0">
-        <v>0.0093112539999999997</v>
+        <v>-0.010898918844759501</v>
       </c>
     </row>
     <row r="416">
@@ -17095,7 +17095,7 @@
         <v>35</v>
       </c>
       <c r="I416" s="0">
-        <v>0.0047117169999999998</v>
+        <v>-0.00596653530374169</v>
       </c>
     </row>
     <row r="417">
@@ -17124,7 +17124,7 @@
         <v>35</v>
       </c>
       <c r="I417" s="0">
-        <v>0.0047117169999999998</v>
+        <v>-0.00596653530374169</v>
       </c>
     </row>
     <row r="418">
@@ -17153,7 +17153,7 @@
         <v>35</v>
       </c>
       <c r="I418" s="0">
-        <v>0.0047117169999999998</v>
+        <v>-0.00596653530374169</v>
       </c>
     </row>
     <row r="419">
@@ -17182,7 +17182,7 @@
         <v>35</v>
       </c>
       <c r="I419" s="0">
-        <v>0.0047117169999999998</v>
+        <v>-0.00596653530374169</v>
       </c>
     </row>
     <row r="420">
@@ -17211,7 +17211,7 @@
         <v>35</v>
       </c>
       <c r="I420" s="0">
-        <v>0.0047117169999999998</v>
+        <v>-0.00596653530374169</v>
       </c>
     </row>
     <row r="421">
@@ -17240,7 +17240,7 @@
         <v>35</v>
       </c>
       <c r="I421" s="0">
-        <v>0.0047117169999999998</v>
+        <v>-0.00596653530374169</v>
       </c>
     </row>
     <row r="422">
@@ -17269,7 +17269,7 @@
         <v>30</v>
       </c>
       <c r="I422" s="0">
-        <v>-0.00141763</v>
+        <v>0.00076691043796017799</v>
       </c>
     </row>
     <row r="423">
@@ -17298,7 +17298,7 @@
         <v>30</v>
       </c>
       <c r="I423" s="0">
-        <v>-0.00141763</v>
+        <v>0.00076691043796017799</v>
       </c>
     </row>
     <row r="424">
@@ -17327,7 +17327,7 @@
         <v>30</v>
       </c>
       <c r="I424" s="0">
-        <v>-0.00141763</v>
+        <v>0.00076691043796017799</v>
       </c>
     </row>
     <row r="425">
@@ -17356,7 +17356,7 @@
         <v>30</v>
       </c>
       <c r="I425" s="0">
-        <v>-0.00141763</v>
+        <v>0.00076691043796017799</v>
       </c>
     </row>
     <row r="426">
@@ -17385,7 +17385,7 @@
         <v>30</v>
       </c>
       <c r="I426" s="0">
-        <v>-0.00141763</v>
+        <v>0.00076691043796017799</v>
       </c>
     </row>
     <row r="427">
@@ -17414,7 +17414,7 @@
         <v>30</v>
       </c>
       <c r="I427" s="0">
-        <v>-0.00141763</v>
+        <v>0.00076691043796017799</v>
       </c>
     </row>
     <row r="428">
@@ -17443,7 +17443,7 @@
         <v>19</v>
       </c>
       <c r="I428" s="0">
-        <v>0.000109065</v>
+        <v>-0.0060077598318457603</v>
       </c>
     </row>
     <row r="429">
@@ -17472,7 +17472,7 @@
         <v>19</v>
       </c>
       <c r="I429" s="0">
-        <v>0.000109065</v>
+        <v>-0.0060077598318457603</v>
       </c>
     </row>
     <row r="430">
@@ -17501,7 +17501,7 @@
         <v>19</v>
       </c>
       <c r="I430" s="0">
-        <v>0.000109065</v>
+        <v>-0.0060077598318457603</v>
       </c>
     </row>
     <row r="431">
@@ -17530,7 +17530,7 @@
         <v>19</v>
       </c>
       <c r="I431" s="0">
-        <v>0.000109065</v>
+        <v>-0.0060077598318457603</v>
       </c>
     </row>
     <row r="432">
@@ -17559,7 +17559,7 @@
         <v>19</v>
       </c>
       <c r="I432" s="0">
-        <v>0.000109065</v>
+        <v>-0.0060077598318457603</v>
       </c>
     </row>
     <row r="433">
@@ -17588,7 +17588,7 @@
         <v>19</v>
       </c>
       <c r="I433" s="0">
-        <v>0.000109065</v>
+        <v>-0.0060077598318457603</v>
       </c>
     </row>
     <row r="434">
@@ -17617,7 +17617,7 @@
         <v>20</v>
       </c>
       <c r="I434" s="0">
-        <v>0.00071692999999999995</v>
+        <v>-0.00077833404066041101</v>
       </c>
     </row>
     <row r="435">
@@ -17646,7 +17646,7 @@
         <v>20</v>
       </c>
       <c r="I435" s="0">
-        <v>0.00071692999999999995</v>
+        <v>-0.00077833404066041101</v>
       </c>
     </row>
     <row r="436">
@@ -17675,7 +17675,7 @@
         <v>20</v>
       </c>
       <c r="I436" s="0">
-        <v>0.00071692999999999995</v>
+        <v>-0.00077833404066041101</v>
       </c>
     </row>
     <row r="437">
@@ -17704,7 +17704,7 @@
         <v>20</v>
       </c>
       <c r="I437" s="0">
-        <v>0.00071692999999999995</v>
+        <v>-0.00077833404066041101</v>
       </c>
     </row>
     <row r="438">
@@ -17733,7 +17733,7 @@
         <v>20</v>
       </c>
       <c r="I438" s="0">
-        <v>0.00071692999999999995</v>
+        <v>-0.00077833404066041101</v>
       </c>
     </row>
     <row r="439">
@@ -17762,7 +17762,7 @@
         <v>20</v>
       </c>
       <c r="I439" s="0">
-        <v>0.00071692999999999995</v>
+        <v>-0.00077833404066041101</v>
       </c>
     </row>
     <row r="440">
@@ -17791,7 +17791,7 @@
         <v>23</v>
       </c>
       <c r="I440" s="0">
-        <v>0.0010892639999999999</v>
+        <v>-0.0149772148579359</v>
       </c>
     </row>
     <row r="441">
@@ -17820,7 +17820,7 @@
         <v>23</v>
       </c>
       <c r="I441" s="0">
-        <v>0.0010892639999999999</v>
+        <v>-0.0149772148579359</v>
       </c>
     </row>
     <row r="442">
@@ -17849,7 +17849,7 @@
         <v>23</v>
       </c>
       <c r="I442" s="0">
-        <v>0.0010892639999999999</v>
+        <v>-0.0149772148579359</v>
       </c>
     </row>
     <row r="443">
@@ -17878,7 +17878,7 @@
         <v>23</v>
       </c>
       <c r="I443" s="0">
-        <v>0.0010892639999999999</v>
+        <v>-0.0149772148579359</v>
       </c>
     </row>
     <row r="444">
@@ -17907,7 +17907,7 @@
         <v>23</v>
       </c>
       <c r="I444" s="0">
-        <v>0.0010892639999999999</v>
+        <v>-0.0149772148579359</v>
       </c>
     </row>
     <row r="445">
@@ -17936,7 +17936,7 @@
         <v>23</v>
       </c>
       <c r="I445" s="0">
-        <v>0.0010892639999999999</v>
+        <v>-0.0149772148579359</v>
       </c>
     </row>
     <row r="446">
@@ -17965,7 +17965,7 @@
         <v>22</v>
       </c>
       <c r="I446" s="0">
-        <v>0.0018804589999999999</v>
+        <v>-0.00201953039504588</v>
       </c>
     </row>
     <row r="447">
@@ -17994,7 +17994,7 @@
         <v>22</v>
       </c>
       <c r="I447" s="0">
-        <v>0.0018804589999999999</v>
+        <v>-0.00201953039504588</v>
       </c>
     </row>
     <row r="448">
@@ -18023,7 +18023,7 @@
         <v>22</v>
       </c>
       <c r="I448" s="0">
-        <v>0.0018804589999999999</v>
+        <v>-0.00201953039504588</v>
       </c>
     </row>
     <row r="449">
@@ -18052,7 +18052,7 @@
         <v>22</v>
       </c>
       <c r="I449" s="0">
-        <v>0.0018804589999999999</v>
+        <v>-0.00201953039504588</v>
       </c>
     </row>
     <row r="450">
@@ -18081,7 +18081,7 @@
         <v>22</v>
       </c>
       <c r="I450" s="0">
-        <v>0.0018804589999999999</v>
+        <v>-0.00201953039504588</v>
       </c>
     </row>
     <row r="451">
@@ -18110,7 +18110,7 @@
         <v>22</v>
       </c>
       <c r="I451" s="0">
-        <v>0.0018804589999999999</v>
+        <v>-0.00201953039504588</v>
       </c>
     </row>
     <row r="452">
@@ -18139,7 +18139,7 @@
         <v>25</v>
       </c>
       <c r="I452" s="0">
-        <v>-0.00068541999999999995</v>
+        <v>-0.0044445581734180502</v>
       </c>
     </row>
     <row r="453">
@@ -18168,7 +18168,7 @@
         <v>25</v>
       </c>
       <c r="I453" s="0">
-        <v>-0.00068541999999999995</v>
+        <v>-0.0044445581734180502</v>
       </c>
     </row>
     <row r="454">
@@ -18197,7 +18197,7 @@
         <v>25</v>
       </c>
       <c r="I454" s="0">
-        <v>-0.00068541999999999995</v>
+        <v>-0.0044445581734180502</v>
       </c>
     </row>
     <row r="455">
@@ -18226,7 +18226,7 @@
         <v>25</v>
       </c>
       <c r="I455" s="0">
-        <v>-0.00068541999999999995</v>
+        <v>-0.0044445581734180502</v>
       </c>
     </row>
     <row r="456">
@@ -18255,7 +18255,7 @@
         <v>25</v>
       </c>
       <c r="I456" s="0">
-        <v>-0.00068541999999999995</v>
+        <v>-0.0044445581734180502</v>
       </c>
     </row>
     <row r="457">
@@ -18284,7 +18284,7 @@
         <v>25</v>
       </c>
       <c r="I457" s="0">
-        <v>-0.00068541999999999995</v>
+        <v>-0.0044445581734180502</v>
       </c>
     </row>
     <row r="458">
@@ -18313,7 +18313,7 @@
         <v>31</v>
       </c>
       <c r="I458" s="0">
-        <v>0.0090293630000000003</v>
+        <v>0.00071783282328397003</v>
       </c>
     </row>
     <row r="459">
@@ -18342,7 +18342,7 @@
         <v>31</v>
       </c>
       <c r="I459" s="0">
-        <v>0.0090293630000000003</v>
+        <v>0.00071783282328397003</v>
       </c>
     </row>
     <row r="460">
@@ -18371,7 +18371,7 @@
         <v>31</v>
       </c>
       <c r="I460" s="0">
-        <v>0.0090293630000000003</v>
+        <v>0.00071783282328397003</v>
       </c>
     </row>
     <row r="461">
@@ -18400,7 +18400,7 @@
         <v>31</v>
       </c>
       <c r="I461" s="0">
-        <v>0.0090293630000000003</v>
+        <v>0.00071783282328397003</v>
       </c>
     </row>
     <row r="462">
@@ -18429,7 +18429,7 @@
         <v>31</v>
       </c>
       <c r="I462" s="0">
-        <v>0.0090293630000000003</v>
+        <v>0.00071783282328397003</v>
       </c>
     </row>
     <row r="463">
@@ -18458,7 +18458,7 @@
         <v>31</v>
       </c>
       <c r="I463" s="0">
-        <v>0.0090293630000000003</v>
+        <v>0.00071783282328397003</v>
       </c>
     </row>
     <row r="464">
@@ -18487,7 +18487,7 @@
         <v>27</v>
       </c>
       <c r="I464" s="0">
-        <v>-0.001446807</v>
+        <v>-0.0011551582720130699</v>
       </c>
     </row>
     <row r="465">
@@ -18516,7 +18516,7 @@
         <v>27</v>
       </c>
       <c r="I465" s="0">
-        <v>-0.001446807</v>
+        <v>-0.0011551582720130699</v>
       </c>
     </row>
     <row r="466">
@@ -18545,7 +18545,7 @@
         <v>27</v>
       </c>
       <c r="I466" s="0">
-        <v>-0.001446807</v>
+        <v>-0.0011551582720130699</v>
       </c>
     </row>
     <row r="467">
@@ -18574,7 +18574,7 @@
         <v>27</v>
       </c>
       <c r="I467" s="0">
-        <v>-0.001446807</v>
+        <v>-0.0011551582720130699</v>
       </c>
     </row>
     <row r="468">
@@ -18603,7 +18603,7 @@
         <v>27</v>
       </c>
       <c r="I468" s="0">
-        <v>-0.001446807</v>
+        <v>-0.0011551582720130699</v>
       </c>
     </row>
     <row r="469">
@@ -18632,7 +18632,7 @@
         <v>27</v>
       </c>
       <c r="I469" s="0">
-        <v>-0.001446807</v>
+        <v>-0.0011551582720130699</v>
       </c>
     </row>
     <row r="470">
@@ -18661,7 +18661,7 @@
         <v>34</v>
       </c>
       <c r="I470" s="0">
-        <v>0.002363834</v>
+        <v>0.00033575692214071799</v>
       </c>
     </row>
     <row r="471">
@@ -18690,7 +18690,7 @@
         <v>34</v>
       </c>
       <c r="I471" s="0">
-        <v>0.002363834</v>
+        <v>0.00033575692214071799</v>
       </c>
     </row>
     <row r="472">
@@ -18719,7 +18719,7 @@
         <v>34</v>
       </c>
       <c r="I472" s="0">
-        <v>0.002363834</v>
+        <v>0.00033575692214071799</v>
       </c>
     </row>
     <row r="473">
@@ -18748,7 +18748,7 @@
         <v>34</v>
       </c>
       <c r="I473" s="0">
-        <v>0.002363834</v>
+        <v>0.00033575692214071799</v>
       </c>
     </row>
     <row r="474">
@@ -18777,7 +18777,7 @@
         <v>34</v>
       </c>
       <c r="I474" s="0">
-        <v>0.002363834</v>
+        <v>0.00033575692214071799</v>
       </c>
     </row>
     <row r="475">
@@ -18806,7 +18806,7 @@
         <v>34</v>
       </c>
       <c r="I475" s="0">
-        <v>0.002363834</v>
+        <v>0.00033575692214071799</v>
       </c>
     </row>
     <row r="476">
@@ -18835,7 +18835,7 @@
         <v>22</v>
       </c>
       <c r="I476" s="0">
-        <v>-0.0049083039999999996</v>
+        <v>-0.0058898646384477598</v>
       </c>
     </row>
     <row r="477">
@@ -18864,7 +18864,7 @@
         <v>22</v>
       </c>
       <c r="I477" s="0">
-        <v>-0.0049083039999999996</v>
+        <v>-0.0058898646384477598</v>
       </c>
     </row>
     <row r="478">
@@ -18893,7 +18893,7 @@
         <v>22</v>
       </c>
       <c r="I478" s="0">
-        <v>-0.0049083039999999996</v>
+        <v>-0.0058898646384477598</v>
       </c>
     </row>
     <row r="479">
@@ -18922,7 +18922,7 @@
         <v>22</v>
       </c>
       <c r="I479" s="0">
-        <v>-0.0049083039999999996</v>
+        <v>-0.0058898646384477598</v>
       </c>
     </row>
     <row r="480">
@@ -18951,7 +18951,7 @@
         <v>22</v>
       </c>
       <c r="I480" s="0">
-        <v>-0.0049083039999999996</v>
+        <v>-0.0058898646384477598</v>
       </c>
     </row>
     <row r="481">
@@ -18980,7 +18980,7 @@
         <v>22</v>
       </c>
       <c r="I481" s="0">
-        <v>-0.0049083039999999996</v>
+        <v>-0.0058898646384477598</v>
       </c>
     </row>
     <row r="482">
@@ -19009,7 +19009,7 @@
         <v>43</v>
       </c>
       <c r="I482" s="0">
-        <v>0.0011772099999999999</v>
+        <v>0.00292683462612331</v>
       </c>
     </row>
     <row r="483">
@@ -19038,7 +19038,7 @@
         <v>43</v>
       </c>
       <c r="I483" s="0">
-        <v>0.0011772099999999999</v>
+        <v>0.00292683462612331</v>
       </c>
     </row>
     <row r="484">
@@ -19067,7 +19067,7 @@
         <v>43</v>
       </c>
       <c r="I484" s="0">
-        <v>0.0011772099999999999</v>
+        <v>0.00292683462612331</v>
       </c>
     </row>
     <row r="485">
@@ -19096,7 +19096,7 @@
         <v>43</v>
       </c>
       <c r="I485" s="0">
-        <v>0.0011772099999999999</v>
+        <v>0.00292683462612331</v>
       </c>
     </row>
     <row r="486">
@@ -19125,7 +19125,7 @@
         <v>43</v>
       </c>
       <c r="I486" s="0">
-        <v>0.0011772099999999999</v>
+        <v>0.00292683462612331</v>
       </c>
     </row>
     <row r="487">
@@ -19154,7 +19154,7 @@
         <v>43</v>
       </c>
       <c r="I487" s="0">
-        <v>0.0011772099999999999</v>
+        <v>0.00292683462612331</v>
       </c>
     </row>
     <row r="488">
@@ -19183,7 +19183,7 @@
         <v>28</v>
       </c>
       <c r="I488" s="0">
-        <v>0.003389403</v>
+        <v>-0.00255073048174381</v>
       </c>
     </row>
     <row r="489">
@@ -19212,7 +19212,7 @@
         <v>28</v>
       </c>
       <c r="I489" s="0">
-        <v>0.003389403</v>
+        <v>-0.00255073048174381</v>
       </c>
     </row>
     <row r="490">
@@ -19241,7 +19241,7 @@
         <v>28</v>
       </c>
       <c r="I490" s="0">
-        <v>0.003389403</v>
+        <v>-0.00255073048174381</v>
       </c>
     </row>
     <row r="491">
@@ -19270,7 +19270,7 @@
         <v>28</v>
       </c>
       <c r="I491" s="0">
-        <v>0.003389403</v>
+        <v>-0.00255073048174381</v>
       </c>
     </row>
     <row r="492">
@@ -19299,7 +19299,7 @@
         <v>28</v>
       </c>
       <c r="I492" s="0">
-        <v>0.003389403</v>
+        <v>-0.00255073048174381</v>
       </c>
     </row>
     <row r="493">
@@ -19328,7 +19328,7 @@
         <v>28</v>
       </c>
       <c r="I493" s="0">
-        <v>0.003389403</v>
+        <v>-0.00255073048174381</v>
       </c>
     </row>
     <row r="494">
@@ -19357,7 +19357,7 @@
         <v>21</v>
       </c>
       <c r="I494" s="0">
-        <v>-0.001790252</v>
+        <v>-0.00039668226963840398</v>
       </c>
     </row>
     <row r="495">
@@ -19386,7 +19386,7 @@
         <v>21</v>
       </c>
       <c r="I495" s="0">
-        <v>-0.001790252</v>
+        <v>-0.00039668226963840398</v>
       </c>
     </row>
     <row r="496">
@@ -19415,7 +19415,7 @@
         <v>21</v>
       </c>
       <c r="I496" s="0">
-        <v>-0.001790252</v>
+        <v>-0.00039668226963840398</v>
       </c>
     </row>
     <row r="497">
@@ -19444,7 +19444,7 @@
         <v>21</v>
       </c>
       <c r="I497" s="0">
-        <v>-0.001790252</v>
+        <v>-0.00039668226963840398</v>
       </c>
     </row>
     <row r="498">
@@ -19473,7 +19473,7 @@
         <v>21</v>
       </c>
       <c r="I498" s="0">
-        <v>-0.001790252</v>
+        <v>-0.00039668226963840398</v>
       </c>
     </row>
     <row r="499">
@@ -19502,7 +19502,7 @@
         <v>21</v>
       </c>
       <c r="I499" s="0">
-        <v>-0.001790252</v>
+        <v>-0.00039668226963840398</v>
       </c>
     </row>
     <row r="500">
@@ -19531,7 +19531,7 @@
         <v>21</v>
       </c>
       <c r="I500" s="0">
-        <v>0.0086968610000000002</v>
+        <v>-0.00360466609708965</v>
       </c>
     </row>
     <row r="501">
@@ -19560,7 +19560,7 @@
         <v>21</v>
       </c>
       <c r="I501" s="0">
-        <v>0.0086968610000000002</v>
+        <v>-0.00360466609708965</v>
       </c>
     </row>
     <row r="502">
@@ -19589,7 +19589,7 @@
         <v>21</v>
       </c>
       <c r="I502" s="0">
-        <v>0.0086968610000000002</v>
+        <v>-0.00360466609708965</v>
       </c>
     </row>
     <row r="503">
@@ -19618,7 +19618,7 @@
         <v>21</v>
       </c>
       <c r="I503" s="0">
-        <v>0.0086968610000000002</v>
+        <v>-0.00360466609708965</v>
       </c>
     </row>
     <row r="504">
@@ -19647,7 +19647,7 @@
         <v>21</v>
       </c>
       <c r="I504" s="0">
-        <v>0.0086968610000000002</v>
+        <v>-0.00360466609708965</v>
       </c>
     </row>
     <row r="505">
@@ -19676,7 +19676,7 @@
         <v>21</v>
       </c>
       <c r="I505" s="0">
-        <v>0.0086968610000000002</v>
+        <v>-0.00360466609708965</v>
       </c>
     </row>
     <row r="506">
@@ -19705,7 +19705,7 @@
         <v>34</v>
       </c>
       <c r="I506" s="0">
-        <v>0.0026436749999999998</v>
+        <v>-0.0025192068424075799</v>
       </c>
     </row>
     <row r="507">
@@ -19734,7 +19734,7 @@
         <v>34</v>
       </c>
       <c r="I507" s="0">
-        <v>0.0026436749999999998</v>
+        <v>-0.0025192068424075799</v>
       </c>
     </row>
     <row r="508">
@@ -19763,7 +19763,7 @@
         <v>34</v>
       </c>
       <c r="I508" s="0">
-        <v>0.0026436749999999998</v>
+        <v>-0.0025192068424075799</v>
       </c>
     </row>
     <row r="509">
@@ -19792,7 +19792,7 @@
         <v>34</v>
       </c>
       <c r="I509" s="0">
-        <v>0.0026436749999999998</v>
+        <v>-0.0025192068424075799</v>
       </c>
     </row>
     <row r="510">
@@ -19821,7 +19821,7 @@
         <v>34</v>
       </c>
       <c r="I510" s="0">
-        <v>0.0026436749999999998</v>
+        <v>-0.0025192068424075799</v>
       </c>
     </row>
     <row r="511">
@@ -19850,7 +19850,7 @@
         <v>34</v>
       </c>
       <c r="I511" s="0">
-        <v>0.0026436749999999998</v>
+        <v>-0.0025192068424075799</v>
       </c>
     </row>
     <row r="512">
@@ -19879,7 +19879,7 @@
         <v>26</v>
       </c>
       <c r="I512" s="0">
-        <v>0.001591837</v>
+        <v>0.0030667819082736999</v>
       </c>
     </row>
     <row r="513">
@@ -19908,7 +19908,7 @@
         <v>26</v>
       </c>
       <c r="I513" s="0">
-        <v>0.001591837</v>
+        <v>0.0030667819082736999</v>
       </c>
     </row>
     <row r="514">
@@ -19937,7 +19937,7 @@
         <v>26</v>
       </c>
       <c r="I514" s="0">
-        <v>0.001591837</v>
+        <v>0.0030667819082736999</v>
       </c>
     </row>
     <row r="515">
@@ -19966,7 +19966,7 @@
         <v>26</v>
       </c>
       <c r="I515" s="0">
-        <v>0.001591837</v>
+        <v>0.0030667819082736999</v>
       </c>
     </row>
     <row r="516">
@@ -19995,7 +19995,7 @@
         <v>26</v>
       </c>
       <c r="I516" s="0">
-        <v>0.001591837</v>
+        <v>0.0030667819082736999</v>
       </c>
     </row>
     <row r="517">
@@ -20024,7 +20024,7 @@
         <v>26</v>
       </c>
       <c r="I517" s="0">
-        <v>0.001591837</v>
+        <v>0.0030667819082736999</v>
       </c>
     </row>
     <row r="518">
@@ -20053,7 +20053,7 @@
         <v>22</v>
       </c>
       <c r="I518" s="0">
-        <v>0.0036502050000000001</v>
+        <v>0.00072865409310907104</v>
       </c>
     </row>
     <row r="519">
@@ -20082,7 +20082,7 @@
         <v>22</v>
       </c>
       <c r="I519" s="0">
-        <v>0.0036502050000000001</v>
+        <v>0.00072865409310907104</v>
       </c>
     </row>
     <row r="520">
@@ -20111,7 +20111,7 @@
         <v>22</v>
       </c>
       <c r="I520" s="0">
-        <v>0.0036502050000000001</v>
+        <v>0.00072865409310907104</v>
       </c>
     </row>
     <row r="521">
@@ -20140,7 +20140,7 @@
         <v>22</v>
       </c>
       <c r="I521" s="0">
-        <v>0.0036502050000000001</v>
+        <v>0.00072865409310907104</v>
       </c>
     </row>
     <row r="522">
@@ -20169,7 +20169,7 @@
         <v>22</v>
       </c>
       <c r="I522" s="0">
-        <v>0.0036502050000000001</v>
+        <v>0.00072865409310907104</v>
       </c>
     </row>
     <row r="523">
@@ -20198,7 +20198,7 @@
         <v>22</v>
       </c>
       <c r="I523" s="0">
-        <v>0.0036502050000000001</v>
+        <v>0.00072865409310907104</v>
       </c>
     </row>
     <row r="524">
@@ -20227,7 +20227,7 @@
         <v>22</v>
       </c>
       <c r="I524" s="0">
-        <v>0.002559366</v>
+        <v>-0.00099550699815154097</v>
       </c>
     </row>
     <row r="525">
@@ -20256,7 +20256,7 @@
         <v>22</v>
       </c>
       <c r="I525" s="0">
-        <v>0.002559366</v>
+        <v>-0.00099550699815154097</v>
       </c>
     </row>
     <row r="526">
@@ -20285,7 +20285,7 @@
         <v>22</v>
       </c>
       <c r="I526" s="0">
-        <v>0.002559366</v>
+        <v>-0.00099550699815154097</v>
       </c>
     </row>
     <row r="527">
@@ -20314,7 +20314,7 @@
         <v>22</v>
       </c>
       <c r="I527" s="0">
-        <v>0.002559366</v>
+        <v>-0.00099550699815154097</v>
       </c>
     </row>
     <row r="528">
@@ -20343,7 +20343,7 @@
         <v>22</v>
       </c>
       <c r="I528" s="0">
-        <v>0.002559366</v>
+        <v>-0.00099550699815154097</v>
       </c>
     </row>
     <row r="529">
@@ -20372,7 +20372,7 @@
         <v>22</v>
       </c>
       <c r="I529" s="0">
-        <v>0.002559366</v>
+        <v>-0.00099550699815154097</v>
       </c>
     </row>
     <row r="530">
@@ -20401,7 +20401,7 @@
         <v>21</v>
       </c>
       <c r="I530" s="0">
-        <v>0.0068601460000000001</v>
+        <v>-0.0076527805067598802</v>
       </c>
     </row>
     <row r="531">
@@ -20430,7 +20430,7 @@
         <v>21</v>
       </c>
       <c r="I531" s="0">
-        <v>0.0068601460000000001</v>
+        <v>-0.0076527805067598802</v>
       </c>
     </row>
     <row r="532">
@@ -20459,7 +20459,7 @@
         <v>21</v>
       </c>
       <c r="I532" s="0">
-        <v>0.0068601460000000001</v>
+        <v>-0.0076527805067598802</v>
       </c>
     </row>
     <row r="533">
@@ -20488,7 +20488,7 @@
         <v>21</v>
       </c>
       <c r="I533" s="0">
-        <v>0.0068601460000000001</v>
+        <v>-0.0076527805067598802</v>
       </c>
     </row>
     <row r="534">
@@ -20517,7 +20517,7 @@
         <v>21</v>
       </c>
       <c r="I534" s="0">
-        <v>0.0068601460000000001</v>
+        <v>-0.0076527805067598802</v>
       </c>
     </row>
     <row r="535">
@@ -20546,7 +20546,7 @@
         <v>21</v>
       </c>
       <c r="I535" s="0">
-        <v>0.0068601460000000001</v>
+        <v>-0.0076527805067598802</v>
       </c>
     </row>
     <row r="536">
@@ -20575,7 +20575,7 @@
         <v>23</v>
       </c>
       <c r="I536" s="0">
-        <v>0.000474294</v>
+        <v>0.0015123202465474599</v>
       </c>
     </row>
     <row r="537">
@@ -20604,7 +20604,7 @@
         <v>23</v>
       </c>
       <c r="I537" s="0">
-        <v>0.000474294</v>
+        <v>0.0015123202465474599</v>
       </c>
     </row>
     <row r="538">
@@ -20633,7 +20633,7 @@
         <v>23</v>
       </c>
       <c r="I538" s="0">
-        <v>0.000474294</v>
+        <v>0.0015123202465474599</v>
       </c>
     </row>
     <row r="539">
@@ -20662,7 +20662,7 @@
         <v>23</v>
       </c>
       <c r="I539" s="0">
-        <v>0.000474294</v>
+        <v>0.0015123202465474599</v>
       </c>
     </row>
     <row r="540">
@@ -20691,7 +20691,7 @@
         <v>23</v>
       </c>
       <c r="I540" s="0">
-        <v>0.000474294</v>
+        <v>0.0015123202465474599</v>
       </c>
     </row>
     <row r="541">
@@ -20720,7 +20720,7 @@
         <v>23</v>
       </c>
       <c r="I541" s="0">
-        <v>0.000474294</v>
+        <v>0.0015123202465474599</v>
       </c>
     </row>
     <row r="542">
@@ -20749,7 +20749,7 @@
         <v>21</v>
       </c>
       <c r="I542" s="0">
-        <v>0.0079489560000000001</v>
+        <v>0.0029375851154327401</v>
       </c>
     </row>
     <row r="543">
@@ -20778,7 +20778,7 @@
         <v>21</v>
       </c>
       <c r="I543" s="0">
-        <v>0.0079489560000000001</v>
+        <v>0.0029375851154327401</v>
       </c>
     </row>
     <row r="544">
@@ -20807,7 +20807,7 @@
         <v>21</v>
       </c>
       <c r="I544" s="0">
-        <v>0.0079489560000000001</v>
+        <v>0.0029375851154327401</v>
       </c>
     </row>
     <row r="545">
@@ -20836,7 +20836,7 @@
         <v>21</v>
       </c>
       <c r="I545" s="0">
-        <v>0.0079489560000000001</v>
+        <v>0.0029375851154327401</v>
       </c>
     </row>
     <row r="546">
@@ -20865,7 +20865,7 @@
         <v>21</v>
       </c>
       <c r="I546" s="0">
-        <v>0.0079489560000000001</v>
+        <v>0.0029375851154327401</v>
       </c>
     </row>
     <row r="547">
@@ -20894,7 +20894,7 @@
         <v>21</v>
       </c>
       <c r="I547" s="0">
-        <v>0.0079489560000000001</v>
+        <v>0.0029375851154327401</v>
       </c>
     </row>
     <row r="548">
@@ -20923,7 +20923,7 @@
         <v>29</v>
       </c>
       <c r="I548" s="0">
-        <v>0.0012045929999999999</v>
+        <v>-0.00128936883993447</v>
       </c>
     </row>
     <row r="549">
@@ -20952,7 +20952,7 @@
         <v>29</v>
       </c>
       <c r="I549" s="0">
-        <v>0.0012045929999999999</v>
+        <v>-0.00128936883993447</v>
       </c>
     </row>
     <row r="550">
@@ -20981,7 +20981,7 @@
         <v>29</v>
       </c>
       <c r="I550" s="0">
-        <v>0.0012045929999999999</v>
+        <v>-0.00128936883993447</v>
       </c>
     </row>
     <row r="551">
@@ -21010,7 +21010,7 @@
         <v>29</v>
       </c>
       <c r="I551" s="0">
-        <v>0.0012045929999999999</v>
+        <v>-0.00128936883993447</v>
       </c>
     </row>
     <row r="552">
@@ -21039,7 +21039,7 @@
         <v>29</v>
       </c>
       <c r="I552" s="0">
-        <v>0.0012045929999999999</v>
+        <v>-0.00128936883993447</v>
       </c>
     </row>
     <row r="553">
@@ -21068,7 +21068,7 @@
         <v>29</v>
       </c>
       <c r="I553" s="0">
-        <v>0.0012045929999999999</v>
+        <v>-0.00128936883993447</v>
       </c>
     </row>
     <row r="554">
@@ -21097,7 +21097,7 @@
         <v>24</v>
       </c>
       <c r="I554" s="0">
-        <v>0.0030897770000000001</v>
+        <v>-0.0052818180993199296</v>
       </c>
     </row>
     <row r="555">
@@ -21126,7 +21126,7 @@
         <v>24</v>
       </c>
       <c r="I555" s="0">
-        <v>0.0030897770000000001</v>
+        <v>-0.0052818180993199296</v>
       </c>
     </row>
     <row r="556">
@@ -21155,7 +21155,7 @@
         <v>24</v>
       </c>
       <c r="I556" s="0">
-        <v>0.0030897770000000001</v>
+        <v>-0.0052818180993199296</v>
       </c>
     </row>
     <row r="557">
@@ -21184,7 +21184,7 @@
         <v>24</v>
       </c>
       <c r="I557" s="0">
-        <v>0.0030897770000000001</v>
+        <v>-0.0052818180993199296</v>
       </c>
     </row>
     <row r="558">
@@ -21213,7 +21213,7 @@
         <v>24</v>
       </c>
       <c r="I558" s="0">
-        <v>0.0030897770000000001</v>
+        <v>-0.0052818180993199296</v>
       </c>
     </row>
     <row r="559">
@@ -21242,7 +21242,7 @@
         <v>24</v>
       </c>
       <c r="I559" s="0">
-        <v>0.0030897770000000001</v>
+        <v>-0.0052818180993199296</v>
       </c>
     </row>
     <row r="560">
@@ -21271,7 +21271,7 @@
         <v>30</v>
       </c>
       <c r="I560" s="0">
-        <v>0.016418397000000001</v>
+        <v>0.0066555766388773901</v>
       </c>
     </row>
     <row r="561">
@@ -21300,7 +21300,7 @@
         <v>30</v>
       </c>
       <c r="I561" s="0">
-        <v>0.016418397000000001</v>
+        <v>0.0066555766388773901</v>
       </c>
     </row>
     <row r="562">
@@ -21329,7 +21329,7 @@
         <v>30</v>
       </c>
       <c r="I562" s="0">
-        <v>0.016418397000000001</v>
+        <v>0.0066555766388773901</v>
       </c>
     </row>
     <row r="563">
@@ -21358,7 +21358,7 @@
         <v>30</v>
       </c>
       <c r="I563" s="0">
-        <v>0.016418397000000001</v>
+        <v>0.0066555766388773901</v>
       </c>
     </row>
     <row r="564">
@@ -21387,7 +21387,7 @@
         <v>30</v>
       </c>
       <c r="I564" s="0">
-        <v>0.016418397000000001</v>
+        <v>0.0066555766388773901</v>
       </c>
     </row>
     <row r="565">
@@ -21416,7 +21416,7 @@
         <v>30</v>
       </c>
       <c r="I565" s="0">
-        <v>0.016418397000000001</v>
+        <v>0.0066555766388773901</v>
       </c>
     </row>
     <row r="566">
@@ -21445,7 +21445,7 @@
         <v>29</v>
       </c>
       <c r="I566" s="0">
-        <v>-0.000116215</v>
+        <v>0.0022235431242734198</v>
       </c>
     </row>
     <row r="567">
@@ -21474,7 +21474,7 @@
         <v>29</v>
       </c>
       <c r="I567" s="0">
-        <v>-0.000116215</v>
+        <v>0.0022235431242734198</v>
       </c>
     </row>
     <row r="568">
@@ -21503,7 +21503,7 @@
         <v>29</v>
       </c>
       <c r="I568" s="0">
-        <v>-0.000116215</v>
+        <v>0.0022235431242734198</v>
       </c>
     </row>
     <row r="569">
@@ -21532,7 +21532,7 @@
         <v>29</v>
       </c>
       <c r="I569" s="0">
-        <v>-0.000116215</v>
+        <v>0.0022235431242734198</v>
       </c>
     </row>
     <row r="570">
@@ -21561,7 +21561,7 @@
         <v>29</v>
       </c>
       <c r="I570" s="0">
-        <v>-0.000116215</v>
+        <v>0.0022235431242734198</v>
       </c>
     </row>
     <row r="571">
@@ -21590,7 +21590,7 @@
         <v>29</v>
       </c>
       <c r="I571" s="0">
-        <v>-0.000116215</v>
+        <v>0.0022235431242734198</v>
       </c>
     </row>
     <row r="572">
@@ -21619,7 +21619,7 @@
         <v>23</v>
       </c>
       <c r="I572" s="0">
-        <v>0.0026893680000000001</v>
+        <v>-1.5172657185758e-05</v>
       </c>
     </row>
     <row r="573">
@@ -21648,7 +21648,7 @@
         <v>23</v>
       </c>
       <c r="I573" s="0">
-        <v>0.0026893680000000001</v>
+        <v>-1.5172657185758e-05</v>
       </c>
     </row>
     <row r="574">
@@ -21677,7 +21677,7 @@
         <v>23</v>
       </c>
       <c r="I574" s="0">
-        <v>0.0026893680000000001</v>
+        <v>-1.5172657185758e-05</v>
       </c>
     </row>
     <row r="575">
@@ -21706,7 +21706,7 @@
         <v>23</v>
       </c>
       <c r="I575" s="0">
-        <v>0.0026893680000000001</v>
+        <v>-1.5172657185758e-05</v>
       </c>
     </row>
     <row r="576">
@@ -21735,7 +21735,7 @@
         <v>23</v>
       </c>
       <c r="I576" s="0">
-        <v>0.0026893680000000001</v>
+        <v>-1.5172657185758e-05</v>
       </c>
     </row>
     <row r="577">
@@ -21764,7 +21764,7 @@
         <v>23</v>
       </c>
       <c r="I577" s="0">
-        <v>0.0026893680000000001</v>
+        <v>-1.5172657185758e-05</v>
       </c>
     </row>
     <row r="578">
@@ -21793,7 +21793,7 @@
         <v>34</v>
       </c>
       <c r="I578" s="0">
-        <v>0.0035331210000000002</v>
+        <v>-0.00341534987092018</v>
       </c>
     </row>
     <row r="579">
@@ -21822,7 +21822,7 @@
         <v>34</v>
       </c>
       <c r="I579" s="0">
-        <v>0.0035331210000000002</v>
+        <v>-0.00341534987092018</v>
       </c>
     </row>
     <row r="580">
@@ -21851,7 +21851,7 @@
         <v>34</v>
       </c>
       <c r="I580" s="0">
-        <v>0.0035331210000000002</v>
+        <v>-0.00341534987092018</v>
       </c>
     </row>
     <row r="581">
@@ -21880,7 +21880,7 @@
         <v>34</v>
       </c>
       <c r="I581" s="0">
-        <v>0.0035331210000000002</v>
+        <v>-0.00341534987092018</v>
       </c>
     </row>
     <row r="582">
@@ -21909,7 +21909,7 @@
         <v>34</v>
       </c>
       <c r="I582" s="0">
-        <v>0.0035331210000000002</v>
+        <v>-0.00341534987092018</v>
       </c>
     </row>
     <row r="583">
@@ -21938,7 +21938,7 @@
         <v>34</v>
       </c>
       <c r="I583" s="0">
-        <v>0.0035331210000000002</v>
+        <v>-0.00341534987092018</v>
       </c>
     </row>
     <row r="584">
@@ -21967,7 +21967,7 @@
         <v>22</v>
       </c>
       <c r="I584" s="0">
-        <v>0.0035787340000000001</v>
+        <v>0.000279658968793228</v>
       </c>
     </row>
     <row r="585">
@@ -21996,7 +21996,7 @@
         <v>22</v>
       </c>
       <c r="I585" s="0">
-        <v>0.0035787340000000001</v>
+        <v>0.000279658968793228</v>
       </c>
     </row>
     <row r="586">
@@ -22025,7 +22025,7 @@
         <v>22</v>
       </c>
       <c r="I586" s="0">
-        <v>0.0035787340000000001</v>
+        <v>0.000279658968793228</v>
       </c>
     </row>
     <row r="587">
@@ -22054,7 +22054,7 @@
         <v>22</v>
       </c>
       <c r="I587" s="0">
-        <v>0.0035787340000000001</v>
+        <v>0.000279658968793228</v>
       </c>
     </row>
     <row r="588">
@@ -22083,7 +22083,7 @@
         <v>22</v>
       </c>
       <c r="I588" s="0">
-        <v>0.0035787340000000001</v>
+        <v>0.000279658968793228</v>
       </c>
     </row>
     <row r="589">
@@ -22112,7 +22112,7 @@
         <v>22</v>
       </c>
       <c r="I589" s="0">
-        <v>0.0035787340000000001</v>
+        <v>0.000279658968793228</v>
       </c>
     </row>
     <row r="590">
@@ -22141,7 +22141,7 @@
         <v>22</v>
       </c>
       <c r="I590" s="0">
-        <v>0.0072305199999999998</v>
+        <v>0.00279648927971721</v>
       </c>
     </row>
     <row r="591">
@@ -22170,7 +22170,7 @@
         <v>22</v>
       </c>
       <c r="I591" s="0">
-        <v>0.0072305199999999998</v>
+        <v>0.00279648927971721</v>
       </c>
     </row>
     <row r="592">
@@ -22199,7 +22199,7 @@
         <v>22</v>
       </c>
       <c r="I592" s="0">
-        <v>0.0072305199999999998</v>
+        <v>0.00279648927971721</v>
       </c>
     </row>
     <row r="593">
@@ -22228,7 +22228,7 @@
         <v>22</v>
       </c>
       <c r="I593" s="0">
-        <v>0.0072305199999999998</v>
+        <v>0.00279648927971721</v>
       </c>
     </row>
     <row r="594">
@@ -22257,7 +22257,7 @@
         <v>22</v>
       </c>
       <c r="I594" s="0">
-        <v>0.0072305199999999998</v>
+        <v>0.00279648927971721</v>
       </c>
     </row>
     <row r="595">
@@ -22286,7 +22286,7 @@
         <v>22</v>
       </c>
       <c r="I595" s="0">
-        <v>0.0072305199999999998</v>
+        <v>0.00279648927971721</v>
       </c>
     </row>
     <row r="596">
@@ -22315,7 +22315,7 @@
         <v>18</v>
       </c>
       <c r="I596" s="0">
-        <v>-0.00046191100000000002</v>
+        <v>-0.0020866184495389501</v>
       </c>
     </row>
     <row r="597">
@@ -22344,7 +22344,7 @@
         <v>18</v>
       </c>
       <c r="I597" s="0">
-        <v>-0.00046191100000000002</v>
+        <v>-0.0020866184495389501</v>
       </c>
     </row>
     <row r="598">
@@ -22373,7 +22373,7 @@
         <v>18</v>
       </c>
       <c r="I598" s="0">
-        <v>-0.00046191100000000002</v>
+        <v>-0.0020866184495389501</v>
       </c>
     </row>
     <row r="599">
@@ -22402,7 +22402,7 @@
         <v>18</v>
       </c>
       <c r="I599" s="0">
-        <v>-0.00046191100000000002</v>
+        <v>-0.0020866184495389501</v>
       </c>
     </row>
     <row r="600">
@@ -22431,7 +22431,7 @@
         <v>18</v>
       </c>
       <c r="I600" s="0">
-        <v>-0.00046191100000000002</v>
+        <v>-0.0020866184495389501</v>
       </c>
     </row>
     <row r="601">
@@ -22460,7 +22460,7 @@
         <v>18</v>
       </c>
       <c r="I601" s="0">
-        <v>-0.00046191100000000002</v>
+        <v>-0.0020866184495389501</v>
       </c>
     </row>
     <row r="602">
@@ -22489,7 +22489,7 @@
         <v>23</v>
       </c>
       <c r="I602" s="0">
-        <v>0.000157085</v>
+        <v>0.0013332421658560599</v>
       </c>
     </row>
     <row r="603">
@@ -22518,7 +22518,7 @@
         <v>23</v>
       </c>
       <c r="I603" s="0">
-        <v>0.000157085</v>
+        <v>0.0013332421658560599</v>
       </c>
     </row>
     <row r="604">
@@ -22547,7 +22547,7 @@
         <v>23</v>
       </c>
       <c r="I604" s="0">
-        <v>0.000157085</v>
+        <v>0.0013332421658560599</v>
       </c>
     </row>
     <row r="605">
@@ -22576,7 +22576,7 @@
         <v>23</v>
       </c>
       <c r="I605" s="0">
-        <v>0.000157085</v>
+        <v>0.0013332421658560599</v>
       </c>
     </row>
     <row r="606">
@@ -22605,7 +22605,7 @@
         <v>23</v>
       </c>
       <c r="I606" s="0">
-        <v>0.000157085</v>
+        <v>0.0013332421658560599</v>
       </c>
     </row>
     <row r="607">
@@ -22634,7 +22634,7 @@
         <v>23</v>
       </c>
       <c r="I607" s="0">
-        <v>0.000157085</v>
+        <v>0.0013332421658560599</v>
       </c>
     </row>
     <row r="608">
@@ -22663,7 +22663,7 @@
         <v>22</v>
       </c>
       <c r="I608" s="0">
-        <v>0.0078055650000000004</v>
+        <v>0.00019557336054276699</v>
       </c>
     </row>
     <row r="609">
@@ -22692,7 +22692,7 @@
         <v>22</v>
       </c>
       <c r="I609" s="0">
-        <v>0.0078055650000000004</v>
+        <v>0.00019557336054276699</v>
       </c>
     </row>
     <row r="610">
@@ -22721,7 +22721,7 @@
         <v>22</v>
       </c>
       <c r="I610" s="0">
-        <v>0.0078055650000000004</v>
+        <v>0.00019557336054276699</v>
       </c>
     </row>
     <row r="611">
@@ -22750,7 +22750,7 @@
         <v>22</v>
       </c>
       <c r="I611" s="0">
-        <v>0.0078055650000000004</v>
+        <v>0.00019557336054276699</v>
       </c>
     </row>
     <row r="612">
@@ -22779,7 +22779,7 @@
         <v>22</v>
       </c>
       <c r="I612" s="0">
-        <v>0.0078055650000000004</v>
+        <v>0.00019557336054276699</v>
       </c>
     </row>
     <row r="613">
@@ -22808,7 +22808,7 @@
         <v>22</v>
       </c>
       <c r="I613" s="0">
-        <v>0.0078055650000000004</v>
+        <v>0.00019557336054276699</v>
       </c>
     </row>
     <row r="614">
@@ -22837,7 +22837,7 @@
         <v>19</v>
       </c>
       <c r="I614" s="0">
-        <v>0.0078666740000000006</v>
+        <v>0.0051839291118085402</v>
       </c>
     </row>
     <row r="615">
@@ -22866,7 +22866,7 @@
         <v>19</v>
       </c>
       <c r="I615" s="0">
-        <v>0.0078666740000000006</v>
+        <v>0.0051839291118085402</v>
       </c>
     </row>
     <row r="616">
@@ -22895,7 +22895,7 @@
         <v>19</v>
       </c>
       <c r="I616" s="0">
-        <v>0.0078666740000000006</v>
+        <v>0.0051839291118085402</v>
       </c>
     </row>
     <row r="617">
@@ -22924,7 +22924,7 @@
         <v>19</v>
       </c>
       <c r="I617" s="0">
-        <v>0.0078666740000000006</v>
+        <v>0.0051839291118085402</v>
       </c>
     </row>
     <row r="618">
@@ -22953,7 +22953,7 @@
         <v>19</v>
       </c>
       <c r="I618" s="0">
-        <v>0.0078666740000000006</v>
+        <v>0.0051839291118085402</v>
       </c>
     </row>
     <row r="619">
@@ -22982,7 +22982,7 @@
         <v>19</v>
       </c>
       <c r="I619" s="0">
-        <v>0.0078666740000000006</v>
+        <v>0.0051839291118085402</v>
       </c>
     </row>
     <row r="620">
@@ -23011,7 +23011,7 @@
         <v>22</v>
       </c>
       <c r="I620" s="0">
-        <v>0.011595311000000001</v>
+        <v>0.0075729549862444401</v>
       </c>
     </row>
     <row r="621">
@@ -23040,7 +23040,7 @@
         <v>22</v>
       </c>
       <c r="I621" s="0">
-        <v>0.011595311000000001</v>
+        <v>0.0075729549862444401</v>
       </c>
     </row>
     <row r="622">
@@ -23069,7 +23069,7 @@
         <v>22</v>
       </c>
       <c r="I622" s="0">
-        <v>0.011595311000000001</v>
+        <v>0.0075729549862444401</v>
       </c>
     </row>
     <row r="623">
@@ -23098,7 +23098,7 @@
         <v>22</v>
       </c>
       <c r="I623" s="0">
-        <v>0.011595311000000001</v>
+        <v>0.0075729549862444401</v>
       </c>
     </row>
     <row r="624">
@@ -23127,7 +23127,7 @@
         <v>22</v>
       </c>
       <c r="I624" s="0">
-        <v>0.011595311000000001</v>
+        <v>0.0075729549862444401</v>
       </c>
     </row>
     <row r="625">
@@ -23156,7 +23156,7 @@
         <v>22</v>
       </c>
       <c r="I625" s="0">
-        <v>0.011595311000000001</v>
+        <v>0.0075729549862444401</v>
       </c>
     </row>
     <row r="626">
@@ -23185,7 +23185,7 @@
         <v>22</v>
       </c>
       <c r="I626" s="0">
-        <v>0.005809392</v>
+        <v>-0.0013198113301768899</v>
       </c>
     </row>
     <row r="627">
@@ -23214,7 +23214,7 @@
         <v>22</v>
       </c>
       <c r="I627" s="0">
-        <v>0.005809392</v>
+        <v>-0.0013198113301768899</v>
       </c>
     </row>
     <row r="628">
@@ -23243,7 +23243,7 @@
         <v>22</v>
       </c>
       <c r="I628" s="0">
-        <v>0.005809392</v>
+        <v>-0.0013198113301768899</v>
       </c>
     </row>
     <row r="629">
@@ -23272,7 +23272,7 @@
         <v>22</v>
       </c>
       <c r="I629" s="0">
-        <v>0.005809392</v>
+        <v>-0.0013198113301768899</v>
       </c>
     </row>
     <row r="630">
@@ -23301,7 +23301,7 @@
         <v>22</v>
       </c>
       <c r="I630" s="0">
-        <v>0.005809392</v>
+        <v>-0.0013198113301768899</v>
       </c>
     </row>
     <row r="631">
@@ -23330,7 +23330,7 @@
         <v>22</v>
       </c>
       <c r="I631" s="0">
-        <v>0.005809392</v>
+        <v>-0.0013198113301768899</v>
       </c>
     </row>
     <row r="632">
@@ -23359,7 +23359,7 @@
         <v>20</v>
       </c>
       <c r="I632" s="0">
-        <v>0.014006223</v>
+        <v>-0.0076805870048701798</v>
       </c>
     </row>
     <row r="633">
@@ -23388,7 +23388,7 @@
         <v>20</v>
       </c>
       <c r="I633" s="0">
-        <v>0.014006223</v>
+        <v>-0.0076805870048701798</v>
       </c>
     </row>
     <row r="634">
@@ -23417,7 +23417,7 @@
         <v>20</v>
       </c>
       <c r="I634" s="0">
-        <v>0.014006223</v>
+        <v>-0.0076805870048701798</v>
       </c>
     </row>
     <row r="635">
@@ -23446,7 +23446,7 @@
         <v>20</v>
       </c>
       <c r="I635" s="0">
-        <v>0.014006223</v>
+        <v>-0.0076805870048701798</v>
       </c>
     </row>
     <row r="636">
@@ -23475,7 +23475,7 @@
         <v>20</v>
       </c>
       <c r="I636" s="0">
-        <v>0.014006223</v>
+        <v>-0.0076805870048701798</v>
       </c>
     </row>
     <row r="637">
@@ -23504,7 +23504,7 @@
         <v>20</v>
       </c>
       <c r="I637" s="0">
-        <v>0.014006223</v>
+        <v>-0.0076805870048701798</v>
       </c>
     </row>
     <row r="638">
@@ -23533,7 +23533,7 @@
         <v>22</v>
       </c>
       <c r="I638" s="0">
-        <v>0.001744495</v>
+        <v>0.0049741212278604499</v>
       </c>
     </row>
     <row r="639">
@@ -23562,7 +23562,7 @@
         <v>22</v>
       </c>
       <c r="I639" s="0">
-        <v>0.001744495</v>
+        <v>0.0049741212278604499</v>
       </c>
     </row>
     <row r="640">
@@ -23591,7 +23591,7 @@
         <v>22</v>
       </c>
       <c r="I640" s="0">
-        <v>0.001744495</v>
+        <v>0.0049741212278604499</v>
       </c>
     </row>
     <row r="641">
@@ -23620,7 +23620,7 @@
         <v>22</v>
       </c>
       <c r="I641" s="0">
-        <v>0.001744495</v>
+        <v>0.0049741212278604499</v>
       </c>
     </row>
     <row r="642">
@@ -23649,7 +23649,7 @@
         <v>22</v>
       </c>
       <c r="I642" s="0">
-        <v>0.001744495</v>
+        <v>0.0049741212278604499</v>
       </c>
     </row>
     <row r="643">
@@ -23678,7 +23678,7 @@
         <v>22</v>
       </c>
       <c r="I643" s="0">
-        <v>0.001744495</v>
+        <v>0.0049741212278604499</v>
       </c>
     </row>
   </sheetData>
